--- a/data/clean_data.xlsx
+++ b/data/clean_data.xlsx
@@ -228,7 +228,7 @@
     <t xml:space="preserve">Male</t>
   </si>
   <si>
-    <t xml:space="preserve">Adult</t>
+    <t xml:space="preserve">adult</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;1</t>
@@ -252,7 +252,7 @@
     <t xml:space="preserve">A03</t>
   </si>
   <si>
-    <t xml:space="preserve">Subadult</t>
+    <t xml:space="preserve">subadult</t>
   </si>
   <si>
     <t xml:space="preserve">20.5</t>
@@ -495,7 +495,7 @@
     <t xml:space="preserve">A77</t>
   </si>
   <si>
-    <t xml:space="preserve">Fawn</t>
+    <t xml:space="preserve">fawn</t>
   </si>
   <si>
     <t xml:space="preserve">4.8262992562333604</t>

--- a/data/clean_data.xlsx
+++ b/data/clean_data.xlsx
@@ -225,7 +225,7 @@
     <t xml:space="preserve">C. elaphus</t>
   </si>
   <si>
-    <t xml:space="preserve">Male</t>
+    <t xml:space="preserve">male</t>
   </si>
   <si>
     <t xml:space="preserve">adult</t>
@@ -273,7 +273,7 @@
     <t xml:space="preserve">A07</t>
   </si>
   <si>
-    <t xml:space="preserve">Female</t>
+    <t xml:space="preserve">female</t>
   </si>
   <si>
     <t xml:space="preserve">42.6</t>

--- a/data/clean_data.xlsx
+++ b/data/clean_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="1566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="1565">
   <si>
     <t xml:space="preserve">Sample_number</t>
   </si>
@@ -1909,9 +1909,6 @@
   </si>
   <si>
     <t xml:space="preserve">G19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8306</t>
   </si>
   <si>
     <t xml:space="preserve">G20</t>
@@ -26170,7 +26167,7 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20" t="s">
-        <v>630</v>
+        <v>100</v>
       </c>
       <c r="N20" t="s">
         <v>70</v>
@@ -26256,7 +26253,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B21" t="s">
         <v>200</v>
@@ -26370,7 +26367,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B22" t="s">
         <v>200</v>
@@ -26402,7 +26399,7 @@
         <v>70</v>
       </c>
       <c r="M22" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="N22" t="s">
         <v>70</v>
@@ -26486,7 +26483,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B23" t="s">
         <v>200</v>
@@ -26514,7 +26511,7 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N23" t="s">
         <v>70</v>
@@ -26559,7 +26556,7 @@
         <v>74</v>
       </c>
       <c r="AD23" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AE23"/>
       <c r="AF23"/>
@@ -26604,7 +26601,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B24" t="s">
         <v>200</v>
@@ -26630,7 +26627,7 @@
         <v>70</v>
       </c>
       <c r="M24" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N24" t="s">
         <v>70</v>
@@ -26642,7 +26639,7 @@
         <v>72</v>
       </c>
       <c r="Q24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="R24" t="s">
         <v>72</v>
@@ -26714,7 +26711,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B25" t="s">
         <v>200</v>
@@ -26740,7 +26737,7 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="N25" t="s">
         <v>70</v>
@@ -26749,7 +26746,7 @@
         <v>73</v>
       </c>
       <c r="P25" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q25" t="s">
         <v>74</v>
@@ -26783,7 +26780,7 @@
         <v>74</v>
       </c>
       <c r="AD25" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AE25"/>
       <c r="AF25"/>
@@ -26832,7 +26829,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B26" t="s">
         <v>200</v>
@@ -26901,7 +26898,7 @@
         <v>74</v>
       </c>
       <c r="AD26" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE26"/>
       <c r="AF26"/>
@@ -26946,7 +26943,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B27" t="s">
         <v>200</v>
@@ -26972,7 +26969,7 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="N27" t="s">
         <v>70</v>
@@ -27015,7 +27012,7 @@
         <v>74</v>
       </c>
       <c r="AD27" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AE27"/>
       <c r="AF27"/>
@@ -27025,7 +27022,7 @@
       <c r="AH27"/>
       <c r="AI27"/>
       <c r="AJ27" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AK27" t="s">
         <v>72</v>
@@ -27062,7 +27059,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B28" t="s">
         <v>200</v>
@@ -27090,7 +27087,7 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N28" t="s">
         <v>70</v>
@@ -27135,7 +27132,7 @@
         <v>74</v>
       </c>
       <c r="AD28" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AE28"/>
       <c r="AF28"/>
@@ -27180,7 +27177,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B29" t="s">
         <v>200</v>
@@ -27204,7 +27201,7 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="N29" t="s">
         <v>70</v>
@@ -27247,7 +27244,7 @@
         <v>74</v>
       </c>
       <c r="AD29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AE29"/>
       <c r="AF29"/>
@@ -27294,7 +27291,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B30" t="s">
         <v>200</v>
@@ -27402,7 +27399,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B31" t="s">
         <v>200</v>
@@ -27432,7 +27429,7 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N31" t="s">
         <v>70</v>
@@ -27528,7 +27525,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B32" t="s">
         <v>200</v>
@@ -27563,13 +27560,13 @@
         <v>73</v>
       </c>
       <c r="P32" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q32" t="s">
         <v>660</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>661</v>
-      </c>
-      <c r="R32" t="s">
-        <v>662</v>
       </c>
       <c r="S32"/>
       <c r="T32"/>
@@ -27611,7 +27608,7 @@
       <c r="AN32"/>
       <c r="AO32"/>
       <c r="AP32" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AQ32"/>
       <c r="AR32"/>
@@ -27640,7 +27637,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B33" t="s">
         <v>200</v>
@@ -27719,7 +27716,7 @@
       <c r="AJ33"/>
       <c r="AK33"/>
       <c r="AL33" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AM33"/>
       <c r="AN33"/>
@@ -27752,7 +27749,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B34" t="s">
         <v>200</v>
@@ -27780,7 +27777,7 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N34" t="s">
         <v>70</v>
@@ -27864,7 +27861,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B35" t="s">
         <v>200</v>
@@ -27888,7 +27885,7 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N35" t="s">
         <v>70</v>
@@ -27972,7 +27969,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B36" t="s">
         <v>200</v>
@@ -28000,7 +27997,7 @@
         <v>70</v>
       </c>
       <c r="M36" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N36" t="s">
         <v>70</v>
@@ -28086,7 +28083,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B37" t="s">
         <v>200</v>
@@ -28114,7 +28111,7 @@
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N37" t="s">
         <v>290</v>
@@ -28200,7 +28197,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B38" t="s">
         <v>200</v>
@@ -28224,7 +28221,7 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N38" t="s">
         <v>70</v>
@@ -28310,7 +28307,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B39" t="s">
         <v>200</v>
@@ -28338,7 +28335,7 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="N39" t="s">
         <v>70</v>
@@ -28424,7 +28421,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B40" t="s">
         <v>200</v>
@@ -28474,7 +28471,7 @@
         <v>71</v>
       </c>
       <c r="W40" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="X40" t="s">
         <v>70</v>
@@ -28536,7 +28533,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B41" t="s">
         <v>200</v>
@@ -28564,7 +28561,7 @@
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N41" t="s">
         <v>70</v>
@@ -28648,7 +28645,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B42" t="s">
         <v>200</v>
@@ -28676,7 +28673,7 @@
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N42" t="s">
         <v>70</v>
@@ -28760,7 +28757,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
@@ -28794,22 +28791,22 @@
         <v>70</v>
       </c>
       <c r="M43" t="s">
+        <v>684</v>
+      </c>
+      <c r="N43" t="s">
         <v>685</v>
-      </c>
-      <c r="N43" t="s">
-        <v>686</v>
       </c>
       <c r="O43" t="s">
         <v>73</v>
       </c>
       <c r="P43" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>74</v>
+      </c>
+      <c r="R43" t="s">
         <v>687</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>74</v>
-      </c>
-      <c r="R43" t="s">
-        <v>688</v>
       </c>
       <c r="S43" t="s">
         <v>70</v>
@@ -28851,7 +28848,7 @@
       <c r="AJ43"/>
       <c r="AK43"/>
       <c r="AL43" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AM43"/>
       <c r="AN43"/>
@@ -28884,7 +28881,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B44" t="s">
         <v>200</v>
@@ -28992,7 +28989,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B45" t="s">
         <v>200</v>
@@ -29020,7 +29017,7 @@
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N45" t="s">
         <v>70</v>
@@ -29106,7 +29103,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B46" t="s">
         <v>200</v>
@@ -29189,7 +29186,7 @@
       <c r="AN46"/>
       <c r="AO46"/>
       <c r="AP46" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AQ46"/>
       <c r="AR46"/>
@@ -29218,7 +29215,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B47" t="s">
         <v>200</v>
@@ -29242,7 +29239,7 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N47" t="s">
         <v>70</v>
@@ -29326,7 +29323,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B48" t="s">
         <v>200</v>
@@ -29354,7 +29351,7 @@
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N48" t="s">
         <v>70</v>
@@ -29438,7 +29435,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B49" t="s">
         <v>200</v>
@@ -29466,7 +29463,7 @@
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N49" t="s">
         <v>70</v>
@@ -29552,7 +29549,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B50" t="s">
         <v>200</v>
@@ -29580,7 +29577,7 @@
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N50" t="s">
         <v>70</v>
@@ -29880,7 +29877,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -29906,7 +29903,7 @@
         <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L2"/>
       <c r="M2" t="s">
@@ -29959,7 +29956,7 @@
         <v>74</v>
       </c>
       <c r="AH2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AI2"/>
       <c r="AJ2"/>
@@ -29998,7 +29995,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -30016,21 +30013,21 @@
         <v>70</v>
       </c>
       <c r="G3" t="s">
+        <v>706</v>
+      </c>
+      <c r="H3" t="s">
         <v>707</v>
-      </c>
-      <c r="H3" t="s">
-        <v>708</v>
       </c>
       <c r="I3"/>
       <c r="J3" t="s">
         <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L3"/>
       <c r="M3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N3" t="s">
         <v>70</v>
@@ -30083,7 +30080,7 @@
         <v>74</v>
       </c>
       <c r="AH3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AI3"/>
       <c r="AJ3"/>
@@ -30120,7 +30117,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -30138,21 +30135,21 @@
         <v>70</v>
       </c>
       <c r="G4" t="s">
+        <v>712</v>
+      </c>
+      <c r="H4" t="s">
         <v>713</v>
-      </c>
-      <c r="H4" t="s">
-        <v>714</v>
       </c>
       <c r="I4"/>
       <c r="J4" t="s">
         <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L4"/>
       <c r="M4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N4" t="s">
         <v>70</v>
@@ -30167,7 +30164,7 @@
         <v>74</v>
       </c>
       <c r="R4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="S4"/>
       <c r="T4"/>
@@ -30184,7 +30181,7 @@
         <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="Z4"/>
       <c r="AA4" t="s">
@@ -30234,7 +30231,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -30275,7 +30272,7 @@
         <v>74</v>
       </c>
       <c r="R5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="S5"/>
       <c r="T5"/>
@@ -30344,7 +30341,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -30372,7 +30369,7 @@
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="N6" t="s">
         <v>70</v>
@@ -30421,7 +30418,7 @@
         <v>74</v>
       </c>
       <c r="AH6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AI6"/>
       <c r="AJ6"/>
@@ -30436,7 +30433,7 @@
       <c r="AS6"/>
       <c r="AT6"/>
       <c r="AU6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AV6"/>
       <c r="AW6"/>
@@ -30460,7 +30457,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -30526,7 +30523,7 @@
       </c>
       <c r="AB7"/>
       <c r="AC7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AD7"/>
       <c r="AE7"/>
@@ -30570,7 +30567,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -30588,19 +30585,19 @@
         <v>70</v>
       </c>
       <c r="G8" t="s">
+        <v>727</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
         <v>728</v>
-      </c>
-      <c r="H8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" t="s">
-        <v>729</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="s">
@@ -30646,7 +30643,7 @@
       </c>
       <c r="AB8"/>
       <c r="AC8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AD8"/>
       <c r="AE8"/>
@@ -30690,7 +30687,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -30798,7 +30795,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -30816,10 +30813,10 @@
         <v>70</v>
       </c>
       <c r="G10" t="s">
+        <v>732</v>
+      </c>
+      <c r="H10" t="s">
         <v>733</v>
-      </c>
-      <c r="H10" t="s">
-        <v>734</v>
       </c>
       <c r="I10" t="s">
         <v>70</v>
@@ -30878,7 +30875,7 @@
       <c r="AE10"/>
       <c r="AF10"/>
       <c r="AG10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AH10"/>
       <c r="AI10"/>
@@ -30916,7 +30913,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -30934,10 +30931,10 @@
         <v>70</v>
       </c>
       <c r="G11" t="s">
+        <v>736</v>
+      </c>
+      <c r="H11" t="s">
         <v>737</v>
-      </c>
-      <c r="H11" t="s">
-        <v>738</v>
       </c>
       <c r="I11"/>
       <c r="J11" t="s">
@@ -30961,7 +30958,7 @@
         <v>74</v>
       </c>
       <c r="R11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="S11"/>
       <c r="T11"/>
@@ -31030,7 +31027,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -31048,7 +31045,7 @@
         <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H12" t="s">
         <v>71</v>
@@ -31061,7 +31058,7 @@
       </c>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="M12" t="s">
         <v>71</v>
@@ -31077,7 +31074,7 @@
         <v>74</v>
       </c>
       <c r="R12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
@@ -31146,7 +31143,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -31187,7 +31184,7 @@
         <v>74</v>
       </c>
       <c r="R13" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="S13"/>
       <c r="T13"/>
@@ -31256,7 +31253,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -31274,10 +31271,10 @@
         <v>70</v>
       </c>
       <c r="G14" t="s">
+        <v>746</v>
+      </c>
+      <c r="H14" t="s">
         <v>747</v>
-      </c>
-      <c r="H14" t="s">
-        <v>748</v>
       </c>
       <c r="I14" t="s">
         <v>70</v>
@@ -31288,7 +31285,7 @@
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N14" t="s">
         <v>70</v>
@@ -31372,7 +31369,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -31417,7 +31414,7 @@
         <v>74</v>
       </c>
       <c r="R15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
@@ -31442,7 +31439,7 @@
       </c>
       <c r="AB15"/>
       <c r="AC15" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AD15"/>
       <c r="AE15"/>
@@ -31486,7 +31483,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -31602,7 +31599,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -31620,23 +31617,23 @@
         <v>70</v>
       </c>
       <c r="G17" t="s">
+        <v>754</v>
+      </c>
+      <c r="H17" t="s">
         <v>755</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" t="s">
         <v>756</v>
-      </c>
-      <c r="I17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" t="s">
-        <v>757</v>
       </c>
       <c r="L17"/>
       <c r="M17" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="N17" t="s">
         <v>70</v>
@@ -31651,7 +31648,7 @@
         <v>74</v>
       </c>
       <c r="R17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="S17"/>
       <c r="T17"/>
@@ -31668,7 +31665,7 @@
         <v>70</v>
       </c>
       <c r="Y17" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="Z17"/>
       <c r="AA17" t="s">
@@ -31676,7 +31673,7 @@
       </c>
       <c r="AB17"/>
       <c r="AC17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AD17"/>
       <c r="AE17"/>
@@ -31720,7 +31717,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -31834,7 +31831,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -31852,7 +31849,7 @@
         <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H19" t="s">
         <v>71</v>
@@ -31879,7 +31876,7 @@
         <v>74</v>
       </c>
       <c r="R19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="S19"/>
       <c r="T19"/>
@@ -31910,7 +31907,7 @@
       <c r="AE19"/>
       <c r="AF19"/>
       <c r="AG19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AH19"/>
       <c r="AI19"/>
@@ -31950,7 +31947,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -31968,10 +31965,10 @@
         <v>70</v>
       </c>
       <c r="G20" t="s">
+        <v>767</v>
+      </c>
+      <c r="H20" t="s">
         <v>768</v>
-      </c>
-      <c r="H20" t="s">
-        <v>769</v>
       </c>
       <c r="I20" t="s">
         <v>70</v>
@@ -31988,14 +31985,14 @@
         <v>70</v>
       </c>
       <c r="O20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="P20"/>
       <c r="Q20" t="s">
         <v>74</v>
       </c>
       <c r="R20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="S20"/>
       <c r="T20"/>
@@ -32012,7 +32009,7 @@
         <v>70</v>
       </c>
       <c r="Y20" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="Z20"/>
       <c r="AA20" t="s">
@@ -32020,7 +32017,7 @@
       </c>
       <c r="AB20"/>
       <c r="AC20" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AD20"/>
       <c r="AE20"/>
@@ -32064,7 +32061,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -32082,22 +32079,22 @@
         <v>70</v>
       </c>
       <c r="G21" t="s">
+        <v>774</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" t="s">
         <v>775</v>
       </c>
-      <c r="H21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>776</v>
-      </c>
-      <c r="L21" t="s">
-        <v>777</v>
       </c>
       <c r="M21" t="s">
         <v>71</v>
@@ -32184,7 +32181,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -32294,7 +32291,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
@@ -32410,7 +32407,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -32441,7 +32438,7 @@
       </c>
       <c r="K24"/>
       <c r="L24" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="M24" t="s">
         <v>71</v>
@@ -32526,7 +32523,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B25" t="s">
         <v>67</v>
@@ -32541,13 +32538,13 @@
         <v>45267</v>
       </c>
       <c r="F25" t="s">
+        <v>782</v>
+      </c>
+      <c r="G25" t="s">
         <v>783</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>784</v>
-      </c>
-      <c r="H25" t="s">
-        <v>785</v>
       </c>
       <c r="I25" t="s">
         <v>70</v>
@@ -32561,7 +32558,7 @@
         <v>71</v>
       </c>
       <c r="N25" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="O25" t="s">
         <v>73</v>
@@ -32642,7 +32639,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B26" t="s">
         <v>67</v>
@@ -32658,10 +32655,10 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="s">
+        <v>787</v>
+      </c>
+      <c r="H26" t="s">
         <v>788</v>
-      </c>
-      <c r="H26" t="s">
-        <v>789</v>
       </c>
       <c r="I26" t="s">
         <v>70</v>
@@ -32672,7 +32669,7 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="N26" t="s">
         <v>70</v>
@@ -32687,7 +32684,7 @@
         <v>74</v>
       </c>
       <c r="R26" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="S26"/>
       <c r="T26"/>
@@ -32712,7 +32709,7 @@
       </c>
       <c r="AB26"/>
       <c r="AC26" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AD26"/>
       <c r="AE26"/>
@@ -32754,7 +32751,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
@@ -32814,7 +32811,7 @@
         <v>70</v>
       </c>
       <c r="Y27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Z27"/>
       <c r="AA27" t="s">
@@ -32866,7 +32863,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
@@ -32884,10 +32881,10 @@
         <v>70</v>
       </c>
       <c r="G28" t="s">
+        <v>795</v>
+      </c>
+      <c r="H28" t="s">
         <v>796</v>
-      </c>
-      <c r="H28" t="s">
-        <v>797</v>
       </c>
       <c r="I28" t="s">
         <v>70</v>
@@ -32982,7 +32979,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B29" t="s">
         <v>67</v>
@@ -33000,19 +32997,19 @@
         <v>70</v>
       </c>
       <c r="G29" t="s">
+        <v>798</v>
+      </c>
+      <c r="H29" t="s">
         <v>799</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" t="s">
         <v>800</v>
-      </c>
-      <c r="I29" t="s">
-        <v>70</v>
-      </c>
-      <c r="J29" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29" t="s">
-        <v>801</v>
       </c>
       <c r="L29"/>
       <c r="M29" t="s">
@@ -33046,7 +33043,7 @@
         <v>70</v>
       </c>
       <c r="Y29" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="Z29"/>
       <c r="AA29" t="s">
@@ -33065,7 +33062,7 @@
         <v>74</v>
       </c>
       <c r="AH29" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AI29"/>
       <c r="AJ29"/>
@@ -33102,7 +33099,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
@@ -33120,10 +33117,10 @@
         <v>70</v>
       </c>
       <c r="G30" t="s">
+        <v>804</v>
+      </c>
+      <c r="H30" t="s">
         <v>805</v>
-      </c>
-      <c r="H30" t="s">
-        <v>806</v>
       </c>
       <c r="I30" t="s">
         <v>70</v>
@@ -33218,7 +33215,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -33236,10 +33233,10 @@
         <v>70</v>
       </c>
       <c r="G31" t="s">
+        <v>807</v>
+      </c>
+      <c r="H31" t="s">
         <v>808</v>
-      </c>
-      <c r="H31" t="s">
-        <v>809</v>
       </c>
       <c r="I31" t="s">
         <v>70</v>
@@ -33250,7 +33247,7 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N31" t="s">
         <v>70</v>
@@ -33334,7 +33331,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B32" t="s">
         <v>67</v>
@@ -33352,19 +33349,19 @@
         <v>70</v>
       </c>
       <c r="G32" t="s">
+        <v>811</v>
+      </c>
+      <c r="H32" t="s">
         <v>812</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" t="s">
         <v>813</v>
-      </c>
-      <c r="I32" t="s">
-        <v>70</v>
-      </c>
-      <c r="J32" t="s">
-        <v>72</v>
-      </c>
-      <c r="K32" t="s">
-        <v>814</v>
       </c>
       <c r="L32"/>
       <c r="M32" t="s">
@@ -33454,7 +33451,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
@@ -33472,10 +33469,10 @@
         <v>70</v>
       </c>
       <c r="G33" t="s">
+        <v>815</v>
+      </c>
+      <c r="H33" t="s">
         <v>816</v>
-      </c>
-      <c r="H33" t="s">
-        <v>817</v>
       </c>
       <c r="I33" t="s">
         <v>70</v>
@@ -33486,20 +33483,20 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33" t="s">
+        <v>817</v>
+      </c>
+      <c r="N33" t="s">
+        <v>70</v>
+      </c>
+      <c r="O33" t="s">
         <v>818</v>
-      </c>
-      <c r="N33" t="s">
-        <v>70</v>
-      </c>
-      <c r="O33" t="s">
-        <v>819</v>
       </c>
       <c r="P33"/>
       <c r="Q33" t="s">
         <v>74</v>
       </c>
       <c r="R33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="S33"/>
       <c r="T33"/>
@@ -33524,7 +33521,7 @@
       </c>
       <c r="AB33"/>
       <c r="AC33" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AD33"/>
       <c r="AE33"/>
@@ -33568,7 +33565,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
@@ -33596,7 +33593,7 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="N34" t="s">
         <v>70</v>
@@ -33609,7 +33606,7 @@
         <v>74</v>
       </c>
       <c r="R34" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="S34"/>
       <c r="T34"/>
@@ -33626,7 +33623,7 @@
         <v>70</v>
       </c>
       <c r="Y34" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z34"/>
       <c r="AA34" t="s">
@@ -33678,7 +33675,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -33696,10 +33693,10 @@
         <v>70</v>
       </c>
       <c r="G35" t="s">
+        <v>826</v>
+      </c>
+      <c r="H35" t="s">
         <v>827</v>
-      </c>
-      <c r="H35" t="s">
-        <v>828</v>
       </c>
       <c r="I35" t="s">
         <v>70</v>
@@ -33794,7 +33791,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
@@ -33812,10 +33809,10 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
+        <v>829</v>
+      </c>
+      <c r="H36" t="s">
         <v>830</v>
-      </c>
-      <c r="H36" t="s">
-        <v>831</v>
       </c>
       <c r="I36" t="s">
         <v>70</v>
@@ -33826,7 +33823,7 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="N36" t="s">
         <v>70</v>
@@ -33839,7 +33836,7 @@
         <v>74</v>
       </c>
       <c r="R36" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="S36"/>
       <c r="T36"/>
@@ -33864,13 +33861,13 @@
       </c>
       <c r="AB36"/>
       <c r="AC36" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AD36"/>
       <c r="AE36"/>
       <c r="AF36"/>
       <c r="AG36" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AH36"/>
       <c r="AI36"/>
@@ -33908,7 +33905,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
@@ -34020,7 +34017,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -34134,7 +34131,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
@@ -34161,25 +34158,25 @@
       </c>
       <c r="K39"/>
       <c r="L39" t="s">
+        <v>838</v>
+      </c>
+      <c r="M39" t="s">
+        <v>71</v>
+      </c>
+      <c r="N39" t="s">
+        <v>70</v>
+      </c>
+      <c r="O39" t="s">
         <v>839</v>
       </c>
-      <c r="M39" t="s">
-        <v>71</v>
-      </c>
-      <c r="N39" t="s">
-        <v>70</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>74</v>
+      </c>
+      <c r="R39" t="s">
         <v>840</v>
-      </c>
-      <c r="P39" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>74</v>
-      </c>
-      <c r="R39" t="s">
-        <v>841</v>
       </c>
       <c r="S39"/>
       <c r="T39"/>
@@ -34210,7 +34207,7 @@
       <c r="AE39"/>
       <c r="AF39"/>
       <c r="AG39" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AH39"/>
       <c r="AI39"/>
@@ -34228,7 +34225,7 @@
         <v>70</v>
       </c>
       <c r="AU39" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AV39"/>
       <c r="AW39"/>
@@ -34252,7 +34249,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B40" t="s">
         <v>67</v>
@@ -34282,7 +34279,7 @@
       </c>
       <c r="L40"/>
       <c r="M40" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="N40" t="s">
         <v>70</v>
@@ -34295,7 +34292,7 @@
         <v>74</v>
       </c>
       <c r="R40" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="S40"/>
       <c r="T40"/>
@@ -34312,7 +34309,7 @@
         <v>70</v>
       </c>
       <c r="Y40" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="Z40"/>
       <c r="AA40" t="s">
@@ -34320,13 +34317,13 @@
       </c>
       <c r="AB40"/>
       <c r="AC40" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AD40"/>
       <c r="AE40"/>
       <c r="AF40"/>
       <c r="AG40" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AH40"/>
       <c r="AI40"/>
@@ -34364,7 +34361,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B41" t="s">
         <v>67</v>
@@ -34382,10 +34379,10 @@
         <v>70</v>
       </c>
       <c r="G41" t="s">
+        <v>850</v>
+      </c>
+      <c r="H41" t="s">
         <v>851</v>
-      </c>
-      <c r="H41" t="s">
-        <v>852</v>
       </c>
       <c r="I41"/>
       <c r="J41" t="s">
@@ -34407,7 +34404,7 @@
         <v>74</v>
       </c>
       <c r="R41" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="S41"/>
       <c r="T41"/>
@@ -34476,7 +34473,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
@@ -34494,7 +34491,7 @@
         <v>70</v>
       </c>
       <c r="G42" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H42" t="s">
         <v>71</v>
@@ -34504,11 +34501,11 @@
         <v>72</v>
       </c>
       <c r="K42" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L42"/>
       <c r="M42" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N42" t="s">
         <v>70</v>
@@ -34592,7 +34589,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
@@ -34610,7 +34607,7 @@
         <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H43" t="s">
         <v>71</v>
@@ -34624,7 +34621,7 @@
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="N43" t="s">
         <v>70</v>
@@ -34639,7 +34636,7 @@
         <v>74</v>
       </c>
       <c r="R43" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S43"/>
       <c r="T43"/>
@@ -34656,7 +34653,7 @@
         <v>70</v>
       </c>
       <c r="Y43" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Z43"/>
       <c r="AA43" t="s">
@@ -34672,7 +34669,7 @@
       <c r="AE43"/>
       <c r="AF43"/>
       <c r="AG43" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AH43"/>
       <c r="AI43"/>
@@ -34710,7 +34707,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B44" t="s">
         <v>67</v>
@@ -34728,7 +34725,7 @@
         <v>70</v>
       </c>
       <c r="G44" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H44" t="s">
         <v>71</v>
@@ -34743,7 +34740,7 @@
         <v>71</v>
       </c>
       <c r="N44" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="O44" t="s">
         <v>73</v>
@@ -34753,7 +34750,7 @@
         <v>74</v>
       </c>
       <c r="R44" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="S44"/>
       <c r="T44"/>
@@ -34770,15 +34767,15 @@
         <v>70</v>
       </c>
       <c r="Y44" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Z44"/>
       <c r="AA44" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AB44"/>
       <c r="AC44" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AD44"/>
       <c r="AE44"/>
@@ -34822,7 +34819,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B45" t="s">
         <v>67</v>
@@ -34840,7 +34837,7 @@
         <v>70</v>
       </c>
       <c r="G45" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H45" t="s">
         <v>71</v>
@@ -34867,7 +34864,7 @@
         <v>74</v>
       </c>
       <c r="R45" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="S45"/>
       <c r="T45"/>
@@ -34892,13 +34889,13 @@
       </c>
       <c r="AB45"/>
       <c r="AC45" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AD45"/>
       <c r="AE45"/>
       <c r="AF45"/>
       <c r="AG45" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AH45"/>
       <c r="AI45"/>
@@ -34936,7 +34933,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
@@ -34951,26 +34948,26 @@
         <v>45225</v>
       </c>
       <c r="F46" t="s">
+        <v>876</v>
+      </c>
+      <c r="G46" t="s">
         <v>877</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>878</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" t="s">
         <v>879</v>
-      </c>
-      <c r="I46" t="s">
-        <v>70</v>
-      </c>
-      <c r="J46" t="s">
-        <v>72</v>
-      </c>
-      <c r="K46" t="s">
-        <v>880</v>
       </c>
       <c r="L46"/>
       <c r="M46" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="N46" t="s">
         <v>70</v>
@@ -35052,7 +35049,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B47" t="s">
         <v>67</v>
@@ -35070,10 +35067,10 @@
         <v>70</v>
       </c>
       <c r="G47" t="s">
+        <v>882</v>
+      </c>
+      <c r="H47" t="s">
         <v>883</v>
-      </c>
-      <c r="H47" t="s">
-        <v>884</v>
       </c>
       <c r="I47"/>
       <c r="J47" t="s">
@@ -35126,7 +35123,7 @@
       <c r="AE47"/>
       <c r="AF47"/>
       <c r="AG47" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AH47"/>
       <c r="AI47"/>
@@ -35164,7 +35161,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B48" t="s">
         <v>67</v>
@@ -35182,10 +35179,10 @@
         <v>70</v>
       </c>
       <c r="G48" t="s">
+        <v>886</v>
+      </c>
+      <c r="H48" t="s">
         <v>887</v>
-      </c>
-      <c r="H48" t="s">
-        <v>888</v>
       </c>
       <c r="I48" t="s">
         <v>70</v>
@@ -35196,7 +35193,7 @@
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="N48" t="s">
         <v>70</v>
@@ -35209,7 +35206,7 @@
         <v>74</v>
       </c>
       <c r="R48" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="S48"/>
       <c r="T48"/>
@@ -35276,7 +35273,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
@@ -35302,7 +35299,7 @@
         <v>72</v>
       </c>
       <c r="K49" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="L49"/>
       <c r="M49" t="s">
@@ -35318,7 +35315,7 @@
         <v>72</v>
       </c>
       <c r="Q49" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="R49" t="s">
         <v>72</v>
@@ -35396,7 +35393,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B50" t="s">
         <v>67</v>
@@ -35414,10 +35411,10 @@
         <v>70</v>
       </c>
       <c r="G50" t="s">
+        <v>894</v>
+      </c>
+      <c r="H50" t="s">
         <v>895</v>
-      </c>
-      <c r="H50" t="s">
-        <v>896</v>
       </c>
       <c r="I50" t="s">
         <v>70</v>
@@ -35514,7 +35511,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B51" t="s">
         <v>67</v>
@@ -35532,10 +35529,10 @@
         <v>70</v>
       </c>
       <c r="G51" t="s">
+        <v>897</v>
+      </c>
+      <c r="H51" t="s">
         <v>898</v>
-      </c>
-      <c r="H51" t="s">
-        <v>899</v>
       </c>
       <c r="I51" t="s">
         <v>70</v>
@@ -35630,7 +35627,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B52" t="s">
         <v>67</v>
@@ -35648,10 +35645,10 @@
         <v>70</v>
       </c>
       <c r="G52" t="s">
+        <v>900</v>
+      </c>
+      <c r="H52" t="s">
         <v>901</v>
-      </c>
-      <c r="H52" t="s">
-        <v>902</v>
       </c>
       <c r="I52"/>
       <c r="J52" t="s">
@@ -35666,7 +35663,7 @@
         <v>70</v>
       </c>
       <c r="O52" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="P52"/>
       <c r="Q52" t="s">
@@ -35692,7 +35689,7 @@
         <v>70</v>
       </c>
       <c r="Y52" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="Z52" t="s">
         <v>70</v>
@@ -35748,7 +35745,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B53" t="s">
         <v>67</v>
@@ -35766,14 +35763,14 @@
         <v>70</v>
       </c>
       <c r="G53" t="s">
+        <v>905</v>
+      </c>
+      <c r="H53" t="s">
         <v>906</v>
-      </c>
-      <c r="H53" t="s">
-        <v>907</v>
       </c>
       <c r="I53"/>
       <c r="J53" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K53"/>
       <c r="L53" t="s">
@@ -35868,7 +35865,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B54" t="s">
         <v>67</v>
@@ -35886,10 +35883,10 @@
         <v>70</v>
       </c>
       <c r="G54" t="s">
+        <v>909</v>
+      </c>
+      <c r="H54" t="s">
         <v>910</v>
-      </c>
-      <c r="H54" t="s">
-        <v>911</v>
       </c>
       <c r="I54"/>
       <c r="J54" t="s">
@@ -35988,7 +35985,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B55" t="s">
         <v>67</v>
@@ -36112,7 +36109,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B56" t="s">
         <v>67</v>
@@ -36130,7 +36127,7 @@
         <v>70</v>
       </c>
       <c r="G56" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H56" t="s">
         <v>71</v>
@@ -36228,7 +36225,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B57" t="s">
         <v>67</v>
@@ -36246,10 +36243,10 @@
         <v>70</v>
       </c>
       <c r="G57" t="s">
+        <v>915</v>
+      </c>
+      <c r="H57" t="s">
         <v>916</v>
-      </c>
-      <c r="H57" t="s">
-        <v>917</v>
       </c>
       <c r="I57"/>
       <c r="J57" t="s">
@@ -36350,7 +36347,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B58" t="s">
         <v>67</v>
@@ -36472,7 +36469,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B59" t="s">
         <v>67</v>
@@ -36592,7 +36589,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B60" t="s">
         <v>67</v>
@@ -36610,10 +36607,10 @@
         <v>70</v>
       </c>
       <c r="G60" t="s">
+        <v>920</v>
+      </c>
+      <c r="H60" t="s">
         <v>921</v>
-      </c>
-      <c r="H60" t="s">
-        <v>922</v>
       </c>
       <c r="I60"/>
       <c r="J60" t="s">
@@ -36621,7 +36618,7 @@
       </c>
       <c r="K60"/>
       <c r="L60" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="M60" t="s">
         <v>71</v>
@@ -36712,7 +36709,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B61" t="s">
         <v>67</v>
@@ -36772,7 +36769,7 @@
         <v>70</v>
       </c>
       <c r="Y61" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="Z61" t="s">
         <v>70</v>
@@ -36828,7 +36825,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B62" t="s">
         <v>67</v>
@@ -36846,10 +36843,10 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
+        <v>926</v>
+      </c>
+      <c r="H62" t="s">
         <v>927</v>
-      </c>
-      <c r="H62" t="s">
-        <v>928</v>
       </c>
       <c r="I62"/>
       <c r="J62" t="s">
@@ -36864,7 +36861,7 @@
         <v>70</v>
       </c>
       <c r="O62" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="P62"/>
       <c r="Q62" t="s">
@@ -36944,7 +36941,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
@@ -36962,10 +36959,10 @@
         <v>70</v>
       </c>
       <c r="G63" t="s">
+        <v>930</v>
+      </c>
+      <c r="H63" t="s">
         <v>931</v>
-      </c>
-      <c r="H63" t="s">
-        <v>932</v>
       </c>
       <c r="I63"/>
       <c r="J63" t="s">
@@ -37068,7 +37065,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B64" t="s">
         <v>67</v>
@@ -37086,7 +37083,7 @@
         <v>70</v>
       </c>
       <c r="G64" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H64" t="s">
         <v>71</v>
@@ -37196,7 +37193,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B65" t="s">
         <v>67</v>
@@ -37214,7 +37211,7 @@
         <v>70</v>
       </c>
       <c r="G65" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H65" t="s">
         <v>71</v>
@@ -37266,7 +37263,7 @@
         <v>70</v>
       </c>
       <c r="AA65" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AB65"/>
       <c r="AC65" t="s">
@@ -37320,7 +37317,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
@@ -37338,14 +37335,14 @@
         <v>70</v>
       </c>
       <c r="G66" t="s">
+        <v>938</v>
+      </c>
+      <c r="H66" t="s">
         <v>939</v>
-      </c>
-      <c r="H66" t="s">
-        <v>940</v>
       </c>
       <c r="I66"/>
       <c r="J66" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K66"/>
       <c r="L66" t="s">
@@ -37448,7 +37445,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
@@ -37466,10 +37463,10 @@
         <v>70</v>
       </c>
       <c r="G67" t="s">
+        <v>942</v>
+      </c>
+      <c r="H67" t="s">
         <v>943</v>
-      </c>
-      <c r="H67" t="s">
-        <v>944</v>
       </c>
       <c r="I67"/>
       <c r="J67" t="s">
@@ -37484,7 +37481,7 @@
         <v>70</v>
       </c>
       <c r="O67" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P67"/>
       <c r="Q67" t="s">
@@ -37510,7 +37507,7 @@
         <v>70</v>
       </c>
       <c r="Y67" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="Z67" t="s">
         <v>70</v>
@@ -37565,14 +37562,14 @@
       <c r="BJ67"/>
       <c r="BK67"/>
       <c r="BL67" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="BM67"/>
       <c r="BN67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
@@ -37597,7 +37594,7 @@
       </c>
       <c r="I68"/>
       <c r="J68" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="K68"/>
       <c r="L68" t="s">
@@ -37610,7 +37607,7 @@
         <v>70</v>
       </c>
       <c r="O68" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P68" t="s">
         <v>72</v>
@@ -37696,7 +37693,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
@@ -37714,14 +37711,14 @@
         <v>70</v>
       </c>
       <c r="G69" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H69" t="s">
         <v>71</v>
       </c>
       <c r="I69"/>
       <c r="J69" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K69"/>
       <c r="L69"/>
@@ -37814,7 +37811,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B70" t="s">
         <v>67</v>
@@ -37832,14 +37829,14 @@
         <v>70</v>
       </c>
       <c r="G70" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H70" t="s">
         <v>71</v>
       </c>
       <c r="I70"/>
       <c r="J70" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="K70"/>
       <c r="L70"/>
@@ -37850,11 +37847,11 @@
         <v>70</v>
       </c>
       <c r="O70" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="P70"/>
       <c r="Q70" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="R70" t="s">
         <v>72</v>
@@ -37958,7 +37955,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B71" t="s">
         <v>67</v>
@@ -37976,7 +37973,7 @@
         <v>70</v>
       </c>
       <c r="G71" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H71" t="s">
         <v>71</v>
@@ -37988,7 +37985,7 @@
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N71" t="s">
         <v>70</v>
@@ -38000,7 +37997,7 @@
         <v>72</v>
       </c>
       <c r="Q71" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="R71" t="s">
         <v>72</v>
@@ -38032,7 +38029,7 @@
       </c>
       <c r="AD71"/>
       <c r="AE71" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AF71"/>
       <c r="AG71" t="s">
@@ -38082,7 +38079,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B72" t="s">
         <v>67</v>
@@ -38108,17 +38105,17 @@
         <v>72</v>
       </c>
       <c r="K72" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="L72"/>
       <c r="M72" t="s">
+        <v>965</v>
+      </c>
+      <c r="N72" t="s">
+        <v>70</v>
+      </c>
+      <c r="O72" t="s">
         <v>966</v>
-      </c>
-      <c r="N72" t="s">
-        <v>70</v>
-      </c>
-      <c r="O72" t="s">
-        <v>967</v>
       </c>
       <c r="P72"/>
       <c r="Q72" t="s">
@@ -38197,16 +38194,16 @@
       <c r="BJ72"/>
       <c r="BK72"/>
       <c r="BL72" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="BM72"/>
       <c r="BN72" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B73" t="s">
         <v>67</v>
@@ -38229,14 +38226,14 @@
       </c>
       <c r="I73"/>
       <c r="J73" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K73" t="s">
         <v>74</v>
       </c>
       <c r="L73"/>
       <c r="M73" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="N73" t="s">
         <v>70</v>
@@ -38330,7 +38327,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B74" t="s">
         <v>67</v>
@@ -38348,10 +38345,10 @@
         <v>70</v>
       </c>
       <c r="G74" t="s">
+        <v>973</v>
+      </c>
+      <c r="H74" t="s">
         <v>974</v>
-      </c>
-      <c r="H74" t="s">
-        <v>975</v>
       </c>
       <c r="I74"/>
       <c r="J74" t="s">
@@ -38360,7 +38357,7 @@
       <c r="K74"/>
       <c r="L74"/>
       <c r="M74" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="N74" t="s">
         <v>70</v>
@@ -38372,7 +38369,7 @@
         <v>72</v>
       </c>
       <c r="Q74" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="R74" t="s">
         <v>72</v>
@@ -38450,7 +38447,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B75" t="s">
         <v>67</v>
@@ -38468,31 +38465,31 @@
         <v>70</v>
       </c>
       <c r="G75" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H75" t="s">
         <v>71</v>
       </c>
       <c r="I75"/>
       <c r="J75" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75" t="s">
+        <v>980</v>
+      </c>
+      <c r="N75" t="s">
+        <v>70</v>
+      </c>
+      <c r="O75" t="s">
         <v>981</v>
       </c>
-      <c r="N75" t="s">
-        <v>70</v>
-      </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>982</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>983</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>984</v>
       </c>
       <c r="R75" t="s">
         <v>72</v>
@@ -38534,7 +38531,7 @@
       </c>
       <c r="AH75"/>
       <c r="AI75" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AJ75" t="s">
         <v>70</v>
@@ -38578,7 +38575,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B76" t="s">
         <v>67</v>
@@ -38596,10 +38593,10 @@
         <v>70</v>
       </c>
       <c r="G76" t="s">
+        <v>986</v>
+      </c>
+      <c r="H76" t="s">
         <v>987</v>
-      </c>
-      <c r="H76" t="s">
-        <v>988</v>
       </c>
       <c r="I76"/>
       <c r="J76" t="s">
@@ -38608,7 +38605,7 @@
       <c r="K76"/>
       <c r="L76"/>
       <c r="M76" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="N76" t="s">
         <v>70</v>
@@ -38692,7 +38689,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B77" t="s">
         <v>67</v>
@@ -38710,14 +38707,14 @@
         <v>70</v>
       </c>
       <c r="G77" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H77" t="s">
         <v>71</v>
       </c>
       <c r="I77"/>
       <c r="J77" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="K77"/>
       <c r="L77" t="s">
@@ -38810,7 +38807,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B78" t="s">
         <v>67</v>
@@ -38828,10 +38825,10 @@
         <v>70</v>
       </c>
       <c r="G78" t="s">
+        <v>993</v>
+      </c>
+      <c r="H78" t="s">
         <v>994</v>
-      </c>
-      <c r="H78" t="s">
-        <v>995</v>
       </c>
       <c r="I78"/>
       <c r="J78" t="s">
@@ -38926,7 +38923,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B79" t="s">
         <v>67</v>
@@ -38951,16 +38948,16 @@
       </c>
       <c r="I79"/>
       <c r="J79" t="s">
+        <v>996</v>
+      </c>
+      <c r="K79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L79" t="s">
+        <v>70</v>
+      </c>
+      <c r="M79" t="s">
         <v>997</v>
-      </c>
-      <c r="K79" t="s">
-        <v>74</v>
-      </c>
-      <c r="L79" t="s">
-        <v>70</v>
-      </c>
-      <c r="M79" t="s">
-        <v>998</v>
       </c>
       <c r="N79" t="s">
         <v>70</v>
@@ -38994,7 +38991,7 @@
         <v>70</v>
       </c>
       <c r="Y79" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="Z79" t="s">
         <v>70</v>
@@ -39004,7 +39001,7 @@
       </c>
       <c r="AB79"/>
       <c r="AC79" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AD79"/>
       <c r="AE79"/>
@@ -39050,7 +39047,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B80" t="s">
         <v>67</v>
@@ -39068,29 +39065,29 @@
         <v>70</v>
       </c>
       <c r="G80" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H80" t="s">
         <v>1002</v>
-      </c>
-      <c r="H80" t="s">
-        <v>1003</v>
       </c>
       <c r="I80"/>
       <c r="J80" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K80"/>
       <c r="L80"/>
       <c r="M80" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N80" t="s">
+        <v>70</v>
+      </c>
+      <c r="O80" t="s">
         <v>1005</v>
-      </c>
-      <c r="N80" t="s">
-        <v>70</v>
-      </c>
-      <c r="O80" t="s">
-        <v>1006</v>
       </c>
       <c r="P80"/>
       <c r="Q80" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="R80" t="s">
         <v>72</v>
@@ -39178,7 +39175,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B81" t="s">
         <v>67</v>
@@ -39196,29 +39193,29 @@
         <v>70</v>
       </c>
       <c r="G81" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H81" t="s">
         <v>1009</v>
-      </c>
-      <c r="H81" t="s">
-        <v>1010</v>
       </c>
       <c r="I81"/>
       <c r="J81" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K81" t="s">
+        <v>74</v>
+      </c>
+      <c r="L81" t="s">
+        <v>70</v>
+      </c>
+      <c r="M81" t="s">
         <v>1011</v>
       </c>
-      <c r="K81" t="s">
-        <v>74</v>
-      </c>
-      <c r="L81" t="s">
-        <v>70</v>
-      </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>1012</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>1013</v>
-      </c>
-      <c r="O81" t="s">
-        <v>1014</v>
       </c>
       <c r="P81" t="s">
         <v>72</v>
@@ -39520,7 +39517,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -39552,10 +39549,10 @@
       </c>
       <c r="L2"/>
       <c r="M2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="N2" t="s">
         <v>1016</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1017</v>
       </c>
       <c r="O2" t="s">
         <v>73</v>
@@ -39597,7 +39594,7 @@
         <v>74</v>
       </c>
       <c r="AD2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AE2"/>
       <c r="AF2"/>
@@ -39640,7 +39637,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -39668,7 +39665,7 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="N3" t="s">
         <v>70</v>
@@ -39754,7 +39751,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B4" t="s">
         <v>200</v>
@@ -39780,7 +39777,7 @@
       </c>
       <c r="L4"/>
       <c r="M4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="N4" t="s">
         <v>70</v>
@@ -39866,7 +39863,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -39894,7 +39891,7 @@
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="N5" t="s">
         <v>70</v>
@@ -39928,7 +39925,7 @@
       </c>
       <c r="Z5"/>
       <c r="AA5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AB5" t="s">
         <v>72</v>
@@ -39978,7 +39975,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -40006,7 +40003,7 @@
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="N6" t="s">
         <v>70</v>
@@ -40090,7 +40087,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -40120,7 +40117,7 @@
       </c>
       <c r="L7"/>
       <c r="M7" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="N7" t="s">
         <v>70</v>
@@ -40206,7 +40203,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -40243,7 +40240,7 @@
         <v>73</v>
       </c>
       <c r="P8" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="Q8" t="s">
         <v>74</v>
@@ -40320,7 +40317,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -40352,10 +40349,10 @@
       </c>
       <c r="L9"/>
       <c r="M9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N9" t="s">
         <v>1033</v>
-      </c>
-      <c r="N9" t="s">
-        <v>1034</v>
       </c>
       <c r="O9" t="s">
         <v>73</v>
@@ -40438,7 +40435,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -40473,10 +40470,10 @@
         <v>71</v>
       </c>
       <c r="N10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="O10" t="s">
         <v>1036</v>
-      </c>
-      <c r="O10" t="s">
-        <v>1037</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -40556,7 +40553,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B11" t="s">
         <v>200</v>
@@ -40580,7 +40577,7 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="N11" t="s">
         <v>70</v>
@@ -40668,7 +40665,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B12" t="s">
         <v>200</v>
@@ -40698,7 +40695,7 @@
         <v>70</v>
       </c>
       <c r="O12" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="P12" t="s">
         <v>72</v>
@@ -40778,7 +40775,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -40806,7 +40803,7 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="N13" t="s">
         <v>70</v>
@@ -40892,7 +40889,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B14" t="s">
         <v>200</v>
@@ -40916,7 +40913,7 @@
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="N14" t="s">
         <v>70</v>
@@ -40948,7 +40945,7 @@
         <v>70</v>
       </c>
       <c r="Y14" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="Z14"/>
       <c r="AA14" t="s">
@@ -41002,7 +40999,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -41032,22 +41029,22 @@
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" t="s">
         <v>1048</v>
       </c>
-      <c r="N15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>74</v>
+      </c>
+      <c r="R15" t="s">
         <v>1049</v>
-      </c>
-      <c r="P15" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>74</v>
-      </c>
-      <c r="R15" t="s">
-        <v>1050</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
@@ -41118,7 +41115,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -41232,7 +41229,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -41250,7 +41247,7 @@
         <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H17" t="s">
         <v>71</v>
@@ -41262,10 +41259,10 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N17" t="s">
         <v>1054</v>
-      </c>
-      <c r="N17" t="s">
-        <v>1055</v>
       </c>
       <c r="O17" t="s">
         <v>73</v>
@@ -41292,7 +41289,7 @@
         <v>70</v>
       </c>
       <c r="Y17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="Z17"/>
       <c r="AA17" t="s">
@@ -41346,7 +41343,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B18" t="s">
         <v>200</v>
@@ -41456,7 +41453,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -41572,7 +41569,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -41686,7 +41683,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -41800,7 +41797,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B22" t="s">
         <v>200</v>
@@ -41854,7 +41851,7 @@
         <v>70</v>
       </c>
       <c r="Y22" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="Z22"/>
       <c r="AA22" t="s">
@@ -41910,7 +41907,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B23" t="s">
         <v>200</v>
@@ -41940,7 +41937,7 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="N23" t="s">
         <v>70</v>
@@ -42026,7 +42023,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -42054,7 +42051,7 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="N24" t="s">
         <v>70</v>
@@ -42140,7 +42137,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B25" t="s">
         <v>200</v>
@@ -42164,7 +42161,7 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="N25" t="s">
         <v>70</v>
@@ -42250,7 +42247,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B26" t="s">
         <v>67</v>
@@ -42276,7 +42273,7 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="N26" t="s">
         <v>70</v>
@@ -42306,7 +42303,7 @@
         <v>70</v>
       </c>
       <c r="Y26" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="Z26"/>
       <c r="AA26" t="s">
@@ -42360,7 +42357,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B27" t="s">
         <v>200</v>
@@ -42388,7 +42385,7 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="N27" t="s">
         <v>70</v>
@@ -42400,7 +42397,7 @@
         <v>72</v>
       </c>
       <c r="Q27" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="R27" t="s">
         <v>72</v>
@@ -42474,7 +42471,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
@@ -42588,7 +42585,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B29" t="s">
         <v>67</v>
@@ -42618,10 +42615,10 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29" t="s">
+        <v>1076</v>
+      </c>
+      <c r="N29" t="s">
         <v>1077</v>
-      </c>
-      <c r="N29" t="s">
-        <v>1078</v>
       </c>
       <c r="O29" t="s">
         <v>73</v>
@@ -42706,7 +42703,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
@@ -42734,10 +42731,10 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30" t="s">
+        <v>1079</v>
+      </c>
+      <c r="N30" t="s">
         <v>1080</v>
-      </c>
-      <c r="N30" t="s">
-        <v>1081</v>
       </c>
       <c r="O30" t="s">
         <v>73</v>
@@ -42764,7 +42761,7 @@
         <v>70</v>
       </c>
       <c r="Y30" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Z30"/>
       <c r="AA30" t="s">
@@ -42822,7 +42819,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -42850,10 +42847,10 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N31" t="s">
         <v>1084</v>
-      </c>
-      <c r="N31" t="s">
-        <v>1085</v>
       </c>
       <c r="O31" t="s">
         <v>73</v>
@@ -42938,7 +42935,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B32" t="s">
         <v>67</v>
@@ -42965,13 +42962,13 @@
       </c>
       <c r="K32"/>
       <c r="L32" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M32" t="s">
         <v>1087</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>1088</v>
-      </c>
-      <c r="N32" t="s">
-        <v>1089</v>
       </c>
       <c r="O32" t="s">
         <v>73</v>
@@ -43052,7 +43049,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B33" t="s">
         <v>200</v>
@@ -43076,11 +43073,11 @@
         <v>72</v>
       </c>
       <c r="K33" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="L33"/>
       <c r="M33" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="N33" t="s">
         <v>70</v>
@@ -43089,13 +43086,13 @@
         <v>73</v>
       </c>
       <c r="P33" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>74</v>
+      </c>
+      <c r="R33" t="s">
         <v>1093</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>74</v>
-      </c>
-      <c r="R33" t="s">
-        <v>1094</v>
       </c>
       <c r="S33"/>
       <c r="T33"/>
@@ -43166,7 +43163,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B34" t="s">
         <v>200</v>
@@ -43196,7 +43193,7 @@
         <v>70</v>
       </c>
       <c r="O34" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="P34" t="s">
         <v>72</v>
@@ -43276,7 +43273,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -43390,7 +43387,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
@@ -43418,7 +43415,7 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="N36" t="s">
         <v>70</v>
@@ -43504,7 +43501,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
@@ -43532,7 +43529,7 @@
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="N37" t="s">
         <v>70</v>
@@ -43622,7 +43619,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -43650,17 +43647,17 @@
         <v>72</v>
       </c>
       <c r="K38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="L38"/>
       <c r="M38" t="s">
         <v>71</v>
       </c>
       <c r="N38" t="s">
+        <v>1103</v>
+      </c>
+      <c r="O38" t="s">
         <v>1104</v>
-      </c>
-      <c r="O38" t="s">
-        <v>1105</v>
       </c>
       <c r="P38"/>
       <c r="Q38" t="s">
@@ -43740,7 +43737,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
@@ -43860,7 +43857,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B40" t="s">
         <v>200</v>
@@ -43884,7 +43881,7 @@
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="N40" t="s">
         <v>70</v>
@@ -43970,7 +43967,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B41" t="s">
         <v>67</v>
@@ -44003,13 +44000,13 @@
         <v>71</v>
       </c>
       <c r="N41" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="O41" t="s">
         <v>73</v>
       </c>
       <c r="P41" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="Q41" t="s">
         <v>74</v>
@@ -44086,7 +44083,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
@@ -44114,7 +44111,7 @@
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="N42" t="s">
         <v>70</v>
@@ -44200,7 +44197,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
@@ -44316,7 +44313,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B44" t="s">
         <v>67</v>
@@ -44334,7 +44331,7 @@
         <v>70</v>
       </c>
       <c r="G44" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H44" t="s">
         <v>71</v>
@@ -44348,7 +44345,7 @@
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="N44" t="s">
         <v>70</v>
@@ -44378,7 +44375,7 @@
         <v>70</v>
       </c>
       <c r="Y44" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="Z44"/>
       <c r="AA44" t="s">
@@ -44432,7 +44429,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B45" t="s">
         <v>67</v>
@@ -44460,7 +44457,7 @@
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="N45" t="s">
         <v>70</v>
@@ -44548,7 +44545,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B46" t="s">
         <v>200</v>
@@ -44572,7 +44569,7 @@
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="N46" t="s">
         <v>70</v>
@@ -44656,7 +44653,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B47" t="s">
         <v>200</v>
@@ -44680,22 +44677,22 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47" t="s">
+        <v>1123</v>
+      </c>
+      <c r="N47" t="s">
+        <v>70</v>
+      </c>
+      <c r="O47" t="s">
         <v>1124</v>
       </c>
-      <c r="N47" t="s">
-        <v>70</v>
-      </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>74</v>
+      </c>
+      <c r="R47" t="s">
         <v>1125</v>
-      </c>
-      <c r="P47" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>74</v>
-      </c>
-      <c r="R47" t="s">
-        <v>1126</v>
       </c>
       <c r="S47"/>
       <c r="T47"/>
@@ -44712,7 +44709,7 @@
         <v>70</v>
       </c>
       <c r="Y47" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="Z47"/>
       <c r="AA47" t="s">
@@ -44766,7 +44763,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B48" t="s">
         <v>200</v>
@@ -44878,7 +44875,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B49" t="s">
         <v>200</v>
@@ -44900,11 +44897,11 @@
         <v>72</v>
       </c>
       <c r="K49" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="L49"/>
       <c r="M49" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="N49" t="s">
         <v>70</v>
@@ -44988,7 +44985,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B50" t="s">
         <v>200</v>
@@ -45016,13 +45013,13 @@
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50" t="s">
+        <v>1132</v>
+      </c>
+      <c r="N50" t="s">
+        <v>70</v>
+      </c>
+      <c r="O50" t="s">
         <v>1133</v>
-      </c>
-      <c r="N50" t="s">
-        <v>70</v>
-      </c>
-      <c r="O50" t="s">
-        <v>1134</v>
       </c>
       <c r="P50" t="s">
         <v>72</v>
@@ -45102,7 +45099,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B51" t="s">
         <v>67</v>
@@ -45120,7 +45117,7 @@
         <v>70</v>
       </c>
       <c r="G51" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H51" t="s">
         <v>71</v>
@@ -45137,7 +45134,7 @@
         <v>71</v>
       </c>
       <c r="N51" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="O51" t="s">
         <v>73</v>
@@ -45436,7 +45433,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -45452,7 +45449,7 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H2" t="s">
         <v>71</v>
@@ -45468,7 +45465,7 @@
         <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="N2" t="s">
         <v>70</v>
@@ -45481,7 +45478,7 @@
         <v>74</v>
       </c>
       <c r="R2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="S2"/>
       <c r="T2"/>
@@ -45498,7 +45495,7 @@
         <v>70</v>
       </c>
       <c r="Y2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="Z2" t="s">
         <v>70</v>
@@ -45554,7 +45551,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -45614,7 +45611,7 @@
         <v>70</v>
       </c>
       <c r="Y3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="Z3" t="s">
         <v>70</v>
@@ -45670,7 +45667,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -45688,10 +45685,10 @@
         <v>70</v>
       </c>
       <c r="G4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H4" t="s">
         <v>1146</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1147</v>
       </c>
       <c r="I4"/>
       <c r="J4" t="s">
@@ -45786,7 +45783,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -45804,10 +45801,10 @@
         <v>70</v>
       </c>
       <c r="G5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H5" t="s">
         <v>1149</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1150</v>
       </c>
       <c r="I5"/>
       <c r="J5" t="s">
@@ -45818,7 +45815,7 @@
       </c>
       <c r="L5"/>
       <c r="M5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="N5" t="s">
         <v>70</v>
@@ -45833,7 +45830,7 @@
         <v>74</v>
       </c>
       <c r="R5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="S5"/>
       <c r="T5"/>
@@ -45850,7 +45847,7 @@
         <v>70</v>
       </c>
       <c r="Y5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="Z5"/>
       <c r="AA5" t="s">
@@ -45906,7 +45903,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -45936,7 +45933,7 @@
         <v>70</v>
       </c>
       <c r="M6" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="N6" t="s">
         <v>70</v>
@@ -45945,7 +45942,7 @@
         <v>73</v>
       </c>
       <c r="P6" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="Q6" t="s">
         <v>74</v>
@@ -45968,7 +45965,7 @@
         <v>70</v>
       </c>
       <c r="Y6" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Z6" t="s">
         <v>70</v>
@@ -46028,7 +46025,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -46046,10 +46043,10 @@
         <v>70</v>
       </c>
       <c r="G7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H7" t="s">
         <v>1159</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1160</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="s">
@@ -46090,7 +46087,7 @@
         <v>70</v>
       </c>
       <c r="Y7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="Z7" t="s">
         <v>70</v>
@@ -46150,7 +46147,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -46189,7 +46186,7 @@
         <v>73</v>
       </c>
       <c r="P8" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="Q8" t="s">
         <v>74</v>
@@ -46212,7 +46209,7 @@
         <v>70</v>
       </c>
       <c r="Y8" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="Z8" t="s">
         <v>70</v>
@@ -46268,7 +46265,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -46286,7 +46283,7 @@
         <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H9" t="s">
         <v>71</v>
@@ -46300,7 +46297,7 @@
         <v>70</v>
       </c>
       <c r="M9" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="N9" t="s">
         <v>70</v>
@@ -46309,7 +46306,7 @@
         <v>73</v>
       </c>
       <c r="P9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="Q9" t="s">
         <v>74</v>
@@ -46332,7 +46329,7 @@
         <v>70</v>
       </c>
       <c r="Y9" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="Z9" t="s">
         <v>70</v>
@@ -46390,7 +46387,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -46408,10 +46405,10 @@
         <v>70</v>
       </c>
       <c r="G10" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H10" t="s">
         <v>1171</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1172</v>
       </c>
       <c r="I10"/>
       <c r="J10" t="s">
@@ -46506,7 +46503,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -46524,10 +46521,10 @@
         <v>70</v>
       </c>
       <c r="G11" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H11" t="s">
         <v>1174</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1175</v>
       </c>
       <c r="I11"/>
       <c r="J11" t="s">
@@ -46540,7 +46537,7 @@
         <v>70</v>
       </c>
       <c r="M11" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="N11" t="s">
         <v>70</v>
@@ -46572,7 +46569,7 @@
         <v>70</v>
       </c>
       <c r="Y11" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="Z11"/>
       <c r="AA11" t="s">
@@ -46628,7 +46625,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -46646,10 +46643,10 @@
         <v>70</v>
       </c>
       <c r="G12" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H12" t="s">
         <v>1179</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1180</v>
       </c>
       <c r="I12"/>
       <c r="J12" t="s">
@@ -46752,7 +46749,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -46770,10 +46767,10 @@
         <v>70</v>
       </c>
       <c r="G13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H13" t="s">
         <v>1182</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1183</v>
       </c>
       <c r="I13"/>
       <c r="J13" t="s">
@@ -46790,14 +46787,14 @@
         <v>70</v>
       </c>
       <c r="O13" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
         <v>74</v>
       </c>
       <c r="R13" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S13"/>
       <c r="T13"/>
@@ -46814,7 +46811,7 @@
         <v>70</v>
       </c>
       <c r="Y13" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Z13"/>
       <c r="AA13" t="s">
@@ -46850,7 +46847,7 @@
       <c r="AS13"/>
       <c r="AT13"/>
       <c r="AU13" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AV13"/>
       <c r="AW13"/>
@@ -46876,7 +46873,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -46925,7 +46922,7 @@
         <v>74</v>
       </c>
       <c r="R14" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
@@ -46942,7 +46939,7 @@
         <v>70</v>
       </c>
       <c r="Y14" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="Z14" t="s">
         <v>70</v>
@@ -47002,7 +46999,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -47020,7 +47017,7 @@
         <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H15" t="s">
         <v>71</v>
@@ -47045,7 +47042,7 @@
         <v>73</v>
       </c>
       <c r="P15" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="Q15" t="s">
         <v>74</v>
@@ -47068,7 +47065,7 @@
         <v>70</v>
       </c>
       <c r="Y15" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="Z15" t="s">
         <v>70</v>
@@ -47128,7 +47125,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -47146,10 +47143,10 @@
         <v>70</v>
       </c>
       <c r="G16" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H16" t="s">
         <v>1196</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1197</v>
       </c>
       <c r="I16"/>
       <c r="J16" t="s">
@@ -47160,7 +47157,7 @@
         <v>70</v>
       </c>
       <c r="M16" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="N16" t="s">
         <v>70</v>
@@ -47169,13 +47166,13 @@
         <v>73</v>
       </c>
       <c r="P16" t="s">
+        <v>1198</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>74</v>
+      </c>
+      <c r="R16" t="s">
         <v>1199</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>74</v>
-      </c>
-      <c r="R16" t="s">
-        <v>1200</v>
       </c>
       <c r="S16"/>
       <c r="T16" t="s">
@@ -47194,7 +47191,7 @@
         <v>70</v>
       </c>
       <c r="Y16" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Z16" t="s">
         <v>70</v>
@@ -47232,7 +47229,7 @@
       <c r="AS16"/>
       <c r="AT16"/>
       <c r="AU16" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AV16"/>
       <c r="AW16"/>
@@ -47258,7 +47255,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -47296,16 +47293,16 @@
         <v>70</v>
       </c>
       <c r="O17" t="s">
+        <v>1203</v>
+      </c>
+      <c r="P17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>74</v>
+      </c>
+      <c r="R17" t="s">
         <v>1204</v>
-      </c>
-      <c r="P17" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R17" t="s">
-        <v>1205</v>
       </c>
       <c r="S17"/>
       <c r="T17"/>
@@ -47322,7 +47319,7 @@
         <v>70</v>
       </c>
       <c r="Y17" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Z17" t="s">
         <v>70</v>
@@ -47358,7 +47355,7 @@
       <c r="AS17"/>
       <c r="AT17"/>
       <c r="AU17" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AV17"/>
       <c r="AW17"/>
@@ -47382,7 +47379,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -47400,10 +47397,10 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H18" t="s">
         <v>1209</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1210</v>
       </c>
       <c r="I18"/>
       <c r="J18" t="s">
@@ -47429,7 +47426,7 @@
         <v>74</v>
       </c>
       <c r="R18" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="S18"/>
       <c r="T18"/>
@@ -47500,7 +47497,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -47518,10 +47515,10 @@
         <v>70</v>
       </c>
       <c r="G19" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H19" t="s">
         <v>1213</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1214</v>
       </c>
       <c r="I19"/>
       <c r="J19" t="s">
@@ -47562,7 +47559,7 @@
         <v>70</v>
       </c>
       <c r="Y19" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="Z19"/>
       <c r="AA19" t="s">
@@ -47618,7 +47615,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -47636,10 +47633,10 @@
         <v>70</v>
       </c>
       <c r="G20" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H20" t="s">
         <v>1217</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1218</v>
       </c>
       <c r="I20"/>
       <c r="J20" t="s">
@@ -47736,7 +47733,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -47754,7 +47751,7 @@
         <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H21" t="s">
         <v>71</v>
@@ -47774,14 +47771,14 @@
         <v>70</v>
       </c>
       <c r="O21" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="P21"/>
       <c r="Q21" t="s">
         <v>74</v>
       </c>
       <c r="R21" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="S21"/>
       <c r="T21"/>
@@ -47798,7 +47795,7 @@
         <v>70</v>
       </c>
       <c r="Y21" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="Z21"/>
       <c r="AA21" t="s">
@@ -47828,7 +47825,7 @@
       <c r="AS21"/>
       <c r="AT21"/>
       <c r="AU21" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AV21"/>
       <c r="AW21"/>
@@ -47856,7 +47853,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -47874,10 +47871,10 @@
         <v>70</v>
       </c>
       <c r="G22" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H22" t="s">
         <v>1226</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1227</v>
       </c>
       <c r="I22"/>
       <c r="J22" t="s">
@@ -47972,7 +47969,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
@@ -47990,10 +47987,10 @@
         <v>70</v>
       </c>
       <c r="G23" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H23" t="s">
         <v>1229</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1230</v>
       </c>
       <c r="I23"/>
       <c r="J23" t="s">
@@ -48010,14 +48007,14 @@
         <v>70</v>
       </c>
       <c r="O23" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="P23"/>
       <c r="Q23" t="s">
         <v>74</v>
       </c>
       <c r="R23" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="S23"/>
       <c r="T23"/>
@@ -48034,7 +48031,7 @@
         <v>70</v>
       </c>
       <c r="Y23" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="Z23"/>
       <c r="AA23" t="s">
@@ -48066,7 +48063,7 @@
       <c r="AS23"/>
       <c r="AT23"/>
       <c r="AU23" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AV23"/>
       <c r="AW23"/>
@@ -48090,7 +48087,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -48108,10 +48105,10 @@
         <v>70</v>
       </c>
       <c r="G24" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H24" t="s">
         <v>1236</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1237</v>
       </c>
       <c r="I24"/>
       <c r="J24" t="s">
@@ -48160,7 +48157,7 @@
       </c>
       <c r="AB24"/>
       <c r="AC24" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AD24"/>
       <c r="AE24"/>
@@ -48206,7 +48203,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B25" t="s">
         <v>67</v>
@@ -48224,10 +48221,10 @@
         <v>70</v>
       </c>
       <c r="G25" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H25" t="s">
         <v>1240</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1241</v>
       </c>
       <c r="I25"/>
       <c r="J25" t="s">
@@ -48320,7 +48317,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B26" t="s">
         <v>67</v>
@@ -48338,10 +48335,10 @@
         <v>70</v>
       </c>
       <c r="G26" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H26" t="s">
         <v>1243</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1244</v>
       </c>
       <c r="I26"/>
       <c r="J26" t="s">
@@ -48363,7 +48360,7 @@
         <v>74</v>
       </c>
       <c r="R26" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S26"/>
       <c r="T26"/>
@@ -48374,13 +48371,13 @@
         <v>71</v>
       </c>
       <c r="W26" t="s">
+        <v>1245</v>
+      </c>
+      <c r="X26" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y26" t="s">
         <v>1246</v>
-      </c>
-      <c r="X26" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>1247</v>
       </c>
       <c r="Z26"/>
       <c r="AA26" t="s">
@@ -48438,7 +48435,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
@@ -48456,10 +48453,10 @@
         <v>70</v>
       </c>
       <c r="G27" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H27" t="s">
         <v>1249</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1250</v>
       </c>
       <c r="I27"/>
       <c r="J27" t="s">
@@ -48470,7 +48467,7 @@
         <v>70</v>
       </c>
       <c r="M27" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="N27" t="s">
         <v>70</v>
@@ -48483,7 +48480,7 @@
         <v>74</v>
       </c>
       <c r="R27" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="S27"/>
       <c r="T27"/>
@@ -48552,7 +48549,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
@@ -48570,10 +48567,10 @@
         <v>70</v>
       </c>
       <c r="G28" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H28" t="s">
         <v>1254</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1255</v>
       </c>
       <c r="I28"/>
       <c r="J28" t="s">
@@ -48666,7 +48663,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B29" t="s">
         <v>67</v>
@@ -48684,10 +48681,10 @@
         <v>70</v>
       </c>
       <c r="G29" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H29" t="s">
         <v>1257</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1258</v>
       </c>
       <c r="I29"/>
       <c r="J29" t="s">
@@ -48700,7 +48697,7 @@
         <v>70</v>
       </c>
       <c r="M29" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="N29" t="s">
         <v>70</v>
@@ -48709,7 +48706,7 @@
         <v>73</v>
       </c>
       <c r="P29" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q29" t="s">
         <v>74</v>
@@ -48786,7 +48783,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
@@ -48804,10 +48801,10 @@
         <v>70</v>
       </c>
       <c r="G30" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H30" t="s">
         <v>1262</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1263</v>
       </c>
       <c r="I30"/>
       <c r="J30" t="s">
@@ -48818,7 +48815,7 @@
         <v>70</v>
       </c>
       <c r="M30" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="N30" t="s">
         <v>70</v>
@@ -48900,7 +48897,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -48923,7 +48920,7 @@
       </c>
       <c r="I31"/>
       <c r="J31" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="K31" t="s">
         <v>74</v>
@@ -48976,7 +48973,7 @@
         <v>72</v>
       </c>
       <c r="AC31" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="AD31"/>
       <c r="AE31"/>
@@ -49002,7 +48999,7 @@
       <c r="AS31"/>
       <c r="AT31"/>
       <c r="AU31" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AV31"/>
       <c r="AW31"/>
@@ -49026,7 +49023,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B32" t="s">
         <v>67</v>
@@ -49044,10 +49041,10 @@
         <v>70</v>
       </c>
       <c r="G32" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H32" t="s">
         <v>1270</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1271</v>
       </c>
       <c r="I32"/>
       <c r="J32" t="s">
@@ -49062,7 +49059,7 @@
         <v>70</v>
       </c>
       <c r="O32" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="P32"/>
       <c r="Q32" t="s">
@@ -49086,7 +49083,7 @@
         <v>70</v>
       </c>
       <c r="Y32" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Z32"/>
       <c r="AA32" t="s">
@@ -49094,7 +49091,7 @@
       </c>
       <c r="AB32"/>
       <c r="AC32" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="AD32"/>
       <c r="AE32"/>
@@ -49140,7 +49137,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
@@ -49158,10 +49155,10 @@
         <v>70</v>
       </c>
       <c r="G33" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H33" t="s">
         <v>1276</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1277</v>
       </c>
       <c r="I33"/>
       <c r="J33" t="s">
@@ -49200,13 +49197,13 @@
         <v>71</v>
       </c>
       <c r="W33" t="s">
+        <v>1277</v>
+      </c>
+      <c r="X33" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y33" t="s">
         <v>1278</v>
-      </c>
-      <c r="X33" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>1279</v>
       </c>
       <c r="Z33"/>
       <c r="AA33" t="s">
@@ -49260,7 +49257,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
@@ -49278,10 +49275,10 @@
         <v>70</v>
       </c>
       <c r="G34" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H34" t="s">
         <v>1281</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1282</v>
       </c>
       <c r="I34"/>
       <c r="J34" t="s">
@@ -49292,7 +49289,7 @@
         <v>70</v>
       </c>
       <c r="M34" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="N34" t="s">
         <v>70</v>
@@ -49305,7 +49302,7 @@
         <v>74</v>
       </c>
       <c r="R34" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="S34"/>
       <c r="T34"/>
@@ -49322,7 +49319,7 @@
         <v>70</v>
       </c>
       <c r="Y34" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="Z34" t="s">
         <v>70</v>
@@ -49380,7 +49377,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -49398,7 +49395,7 @@
         <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H35" t="s">
         <v>71</v>
@@ -49425,7 +49422,7 @@
         <v>74</v>
       </c>
       <c r="R35" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="S35"/>
       <c r="T35"/>
@@ -49442,7 +49439,7 @@
         <v>70</v>
       </c>
       <c r="Y35" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="Z35"/>
       <c r="AA35" t="s">
@@ -49498,7 +49495,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
@@ -49516,10 +49513,10 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H36" t="s">
         <v>1291</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1292</v>
       </c>
       <c r="I36"/>
       <c r="J36" t="s">
@@ -49620,7 +49617,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
@@ -49638,10 +49635,10 @@
         <v>70</v>
       </c>
       <c r="G37" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H37" t="s">
         <v>1294</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1295</v>
       </c>
       <c r="I37"/>
       <c r="J37" t="s">
@@ -49738,7 +49735,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -49756,10 +49753,10 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H38" t="s">
         <v>1297</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1298</v>
       </c>
       <c r="I38"/>
       <c r="J38" t="s">
@@ -49770,7 +49767,7 @@
         <v>70</v>
       </c>
       <c r="M38" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="N38" t="s">
         <v>70</v>
@@ -49783,7 +49780,7 @@
         <v>74</v>
       </c>
       <c r="R38" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="S38"/>
       <c r="T38"/>
@@ -49800,7 +49797,7 @@
         <v>70</v>
       </c>
       <c r="Y38" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="Z38"/>
       <c r="AA38" t="s">
@@ -49856,7 +49853,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
@@ -49874,7 +49871,7 @@
         <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H39" t="s">
         <v>71</v>
@@ -49886,7 +49883,7 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="N39" t="s">
         <v>70</v>
@@ -49968,7 +49965,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B40" t="s">
         <v>67</v>
@@ -49986,10 +49983,10 @@
         <v>70</v>
       </c>
       <c r="G40" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H40" t="s">
         <v>1306</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1307</v>
       </c>
       <c r="I40"/>
       <c r="J40" t="s">
@@ -50013,7 +50010,7 @@
         <v>74</v>
       </c>
       <c r="R40" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="S40"/>
       <c r="T40"/>
@@ -50030,7 +50027,7 @@
         <v>70</v>
       </c>
       <c r="Y40" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="Z40"/>
       <c r="AA40" t="s">
@@ -50084,7 +50081,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B41" t="s">
         <v>67</v>
@@ -50102,10 +50099,10 @@
         <v>70</v>
       </c>
       <c r="G41" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H41" t="s">
         <v>1311</v>
-      </c>
-      <c r="H41" t="s">
-        <v>1312</v>
       </c>
       <c r="I41"/>
       <c r="J41" t="s">
@@ -50200,7 +50197,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
@@ -50216,7 +50213,7 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H42" t="s">
         <v>71</v>
@@ -50226,7 +50223,7 @@
         <v>72</v>
       </c>
       <c r="K42" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="L42"/>
       <c r="M42" t="s">
@@ -50243,7 +50240,7 @@
         <v>74</v>
       </c>
       <c r="R42" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="S42"/>
       <c r="T42"/>
@@ -50260,7 +50257,7 @@
         <v>70</v>
       </c>
       <c r="Y42" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Z42"/>
       <c r="AA42" t="s">
@@ -50314,7 +50311,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
@@ -50332,10 +50329,10 @@
         <v>70</v>
       </c>
       <c r="G43" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H43" t="s">
         <v>1319</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1320</v>
       </c>
       <c r="I43"/>
       <c r="J43" t="s">
@@ -50352,7 +50349,7 @@
         <v>70</v>
       </c>
       <c r="O43" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="P43"/>
       <c r="Q43" t="s">
@@ -50430,7 +50427,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B44" t="s">
         <v>67</v>
@@ -50448,10 +50445,10 @@
         <v>70</v>
       </c>
       <c r="G44" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H44" t="s">
         <v>1323</v>
-      </c>
-      <c r="H44" t="s">
-        <v>1324</v>
       </c>
       <c r="I44"/>
       <c r="J44" t="s">
@@ -50462,7 +50459,7 @@
         <v>70</v>
       </c>
       <c r="M44" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="N44" t="s">
         <v>70</v>
@@ -50477,7 +50474,7 @@
         <v>74</v>
       </c>
       <c r="R44" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="S44"/>
       <c r="T44"/>
@@ -50494,7 +50491,7 @@
         <v>70</v>
       </c>
       <c r="Y44" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="Z44"/>
       <c r="AA44" t="s">
@@ -50548,7 +50545,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B45" t="s">
         <v>67</v>
@@ -50566,10 +50563,10 @@
         <v>70</v>
       </c>
       <c r="G45" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H45" t="s">
         <v>1329</v>
-      </c>
-      <c r="H45" t="s">
-        <v>1330</v>
       </c>
       <c r="I45"/>
       <c r="J45" t="s">
@@ -50593,7 +50590,7 @@
         <v>74</v>
       </c>
       <c r="R45" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="S45"/>
       <c r="T45"/>
@@ -50664,7 +50661,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
@@ -50682,10 +50679,10 @@
         <v>70</v>
       </c>
       <c r="G46" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H46" t="s">
         <v>1333</v>
-      </c>
-      <c r="H46" t="s">
-        <v>1334</v>
       </c>
       <c r="I46"/>
       <c r="J46" t="s">
@@ -50698,20 +50695,20 @@
         <v>70</v>
       </c>
       <c r="M46" t="s">
+        <v>1334</v>
+      </c>
+      <c r="N46" t="s">
+        <v>70</v>
+      </c>
+      <c r="O46" t="s">
         <v>1335</v>
-      </c>
-      <c r="N46" t="s">
-        <v>70</v>
-      </c>
-      <c r="O46" t="s">
-        <v>1336</v>
       </c>
       <c r="P46"/>
       <c r="Q46" t="s">
         <v>74</v>
       </c>
       <c r="R46" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="S46"/>
       <c r="T46"/>
@@ -50728,7 +50725,7 @@
         <v>70</v>
       </c>
       <c r="Y46" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="Z46"/>
       <c r="AA46" t="s">
@@ -50758,7 +50755,7 @@
       <c r="AS46"/>
       <c r="AT46"/>
       <c r="AU46" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="AV46"/>
       <c r="AW46"/>
@@ -50784,7 +50781,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B47" t="s">
         <v>67</v>
@@ -50802,14 +50799,14 @@
         <v>70</v>
       </c>
       <c r="G47" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H47" t="s">
         <v>1341</v>
-      </c>
-      <c r="H47" t="s">
-        <v>1342</v>
       </c>
       <c r="I47"/>
       <c r="J47" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="K47"/>
       <c r="L47" t="s">
@@ -50822,11 +50819,11 @@
         <v>70</v>
       </c>
       <c r="O47" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="P47"/>
       <c r="Q47" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="R47" t="s">
         <v>72</v>
@@ -50848,7 +50845,7 @@
         <v>70</v>
       </c>
       <c r="Y47" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="Z47" t="s">
         <v>70</v>
@@ -50881,7 +50878,7 @@
       </c>
       <c r="AM47"/>
       <c r="AN47" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="AO47"/>
       <c r="AP47"/>
@@ -50922,7 +50919,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B48" t="s">
         <v>67</v>
@@ -50940,14 +50937,14 @@
         <v>70</v>
       </c>
       <c r="G48" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H48" t="s">
         <v>1349</v>
-      </c>
-      <c r="H48" t="s">
-        <v>1350</v>
       </c>
       <c r="I48"/>
       <c r="J48" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="K48"/>
       <c r="L48" t="s">
@@ -50984,7 +50981,7 @@
         <v>70</v>
       </c>
       <c r="Y48" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="Z48"/>
       <c r="AA48" t="s">
@@ -51036,7 +51033,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
@@ -51055,7 +51052,7 @@
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="K49"/>
       <c r="L49"/>
@@ -51066,7 +51063,7 @@
         <v>70</v>
       </c>
       <c r="O49" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="P49"/>
       <c r="Q49" t="s">
@@ -51146,7 +51143,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B50" t="s">
         <v>67</v>
@@ -51164,10 +51161,10 @@
         <v>70</v>
       </c>
       <c r="G50" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H50" t="s">
         <v>1357</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1358</v>
       </c>
       <c r="I50"/>
       <c r="J50" t="s">
@@ -51178,20 +51175,20 @@
         <v>70</v>
       </c>
       <c r="M50" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N50" t="s">
+        <v>70</v>
+      </c>
+      <c r="O50" t="s">
         <v>1359</v>
-      </c>
-      <c r="N50" t="s">
-        <v>70</v>
-      </c>
-      <c r="O50" t="s">
-        <v>1360</v>
       </c>
       <c r="P50"/>
       <c r="Q50" t="s">
         <v>74</v>
       </c>
       <c r="R50" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="S50"/>
       <c r="T50"/>
@@ -51208,7 +51205,7 @@
         <v>70</v>
       </c>
       <c r="Y50" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Z50"/>
       <c r="AA50" t="s">
@@ -51260,7 +51257,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B51" t="s">
         <v>67</v>
@@ -51278,10 +51275,10 @@
         <v>70</v>
       </c>
       <c r="G51" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H51" t="s">
         <v>1364</v>
-      </c>
-      <c r="H51" t="s">
-        <v>1365</v>
       </c>
       <c r="I51"/>
       <c r="J51" t="s">
@@ -51364,7 +51361,7 @@
       <c r="AS51"/>
       <c r="AT51"/>
       <c r="AU51" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="AV51"/>
       <c r="AW51"/>
@@ -51388,7 +51385,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B52" t="s">
         <v>67</v>
@@ -51406,10 +51403,10 @@
         <v>70</v>
       </c>
       <c r="G52" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H52" t="s">
         <v>1368</v>
-      </c>
-      <c r="H52" t="s">
-        <v>1369</v>
       </c>
       <c r="I52"/>
       <c r="J52" t="s">
@@ -51433,7 +51430,7 @@
         <v>74</v>
       </c>
       <c r="R52" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="S52"/>
       <c r="T52"/>
@@ -51450,7 +51447,7 @@
         <v>70</v>
       </c>
       <c r="Y52" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="Z52"/>
       <c r="AA52" t="s">
@@ -51502,7 +51499,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B53" t="s">
         <v>67</v>
@@ -51520,10 +51517,10 @@
         <v>70</v>
       </c>
       <c r="G53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H53" t="s">
         <v>1373</v>
-      </c>
-      <c r="H53" t="s">
-        <v>1374</v>
       </c>
       <c r="I53"/>
       <c r="J53" t="s">
@@ -51549,7 +51546,7 @@
         <v>74</v>
       </c>
       <c r="R53" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="S53"/>
       <c r="T53"/>
@@ -51618,7 +51615,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B54" t="s">
         <v>67</v>
@@ -51636,10 +51633,10 @@
         <v>70</v>
       </c>
       <c r="G54" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H54" t="s">
         <v>1377</v>
-      </c>
-      <c r="H54" t="s">
-        <v>1378</v>
       </c>
       <c r="I54"/>
       <c r="J54" t="s">
@@ -51649,7 +51646,7 @@
         <v>74</v>
       </c>
       <c r="L54" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="M54" t="s">
         <v>71</v>
@@ -51690,7 +51687,7 @@
         <v>70</v>
       </c>
       <c r="AA54" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="AB54" t="s">
         <v>72</v>
@@ -51724,7 +51721,7 @@
       <c r="AS54"/>
       <c r="AT54"/>
       <c r="AU54" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="AV54"/>
       <c r="AW54"/>
@@ -51962,7 +51959,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -51980,7 +51977,7 @@
         <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H2" t="s">
         <v>71</v>
@@ -52004,7 +52001,7 @@
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="R2" t="s">
         <v>72</v>
@@ -52060,7 +52057,7 @@
       <c r="AS2"/>
       <c r="AT2"/>
       <c r="AU2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="AV2"/>
       <c r="AW2"/>
@@ -52084,7 +52081,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -52144,7 +52141,7 @@
         <v>70</v>
       </c>
       <c r="Y3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="Z3"/>
       <c r="AA3" t="s">
@@ -52198,7 +52195,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -52216,14 +52213,14 @@
         <v>70</v>
       </c>
       <c r="G4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H4" t="s">
         <v>1389</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1390</v>
       </c>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="K4"/>
       <c r="L4" t="s">
@@ -52320,7 +52317,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -52335,17 +52332,17 @@
         <v>45506</v>
       </c>
       <c r="F5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G5" t="s">
         <v>1393</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>1394</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1395</v>
       </c>
       <c r="I5"/>
       <c r="J5" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="K5"/>
       <c r="L5" t="s">
@@ -52440,7 +52437,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -52465,14 +52462,14 @@
       </c>
       <c r="I6"/>
       <c r="J6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="K6"/>
       <c r="L6" t="s">
         <v>70</v>
       </c>
       <c r="M6" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="N6" t="s">
         <v>70</v>
@@ -52482,7 +52479,7 @@
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="R6" t="s">
         <v>72</v>
@@ -52556,7 +52553,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -52574,14 +52571,14 @@
         <v>70</v>
       </c>
       <c r="G7" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H7" t="s">
         <v>1402</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1403</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="K7"/>
       <c r="L7" t="s">
@@ -52670,7 +52667,7 @@
       <c r="BG7"/>
       <c r="BH7"/>
       <c r="BI7" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="BJ7"/>
       <c r="BK7"/>
@@ -52680,7 +52677,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -52794,7 +52791,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -52812,10 +52809,10 @@
         <v>70</v>
       </c>
       <c r="G9" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H9" t="s">
         <v>1408</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1409</v>
       </c>
       <c r="I9"/>
       <c r="J9" t="s">
@@ -52910,7 +52907,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -52928,10 +52925,10 @@
         <v>70</v>
       </c>
       <c r="G10" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H10" t="s">
         <v>1411</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1412</v>
       </c>
       <c r="I10"/>
       <c r="J10" t="s">
@@ -52952,7 +52949,7 @@
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="R10" t="s">
         <v>72</v>
@@ -53028,7 +53025,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -53046,14 +53043,14 @@
         <v>70</v>
       </c>
       <c r="G11" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H11" t="s">
         <v>1415</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1416</v>
       </c>
       <c r="I11"/>
       <c r="J11" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="K11"/>
       <c r="L11" t="s">
@@ -53126,7 +53123,7 @@
       <c r="AS11"/>
       <c r="AT11"/>
       <c r="AU11" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="AV11"/>
       <c r="AW11"/>
@@ -53150,7 +53147,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -53173,7 +53170,7 @@
       </c>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="K12"/>
       <c r="L12"/>
@@ -53187,7 +53184,7 @@
         <v>73</v>
       </c>
       <c r="P12" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="Q12" t="s">
         <v>74</v>
@@ -53272,7 +53269,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -53290,7 +53287,7 @@
         <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H13" t="s">
         <v>71</v>
@@ -53302,13 +53299,13 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="s">
+        <v>1423</v>
+      </c>
+      <c r="N13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" t="s">
         <v>1424</v>
-      </c>
-      <c r="N13" t="s">
-        <v>70</v>
-      </c>
-      <c r="O13" t="s">
-        <v>1425</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
@@ -53392,7 +53389,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -53420,7 +53417,7 @@
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="N14" t="s">
         <v>70</v>
@@ -53502,7 +53499,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -53520,14 +53517,14 @@
         <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H15" t="s">
         <v>71</v>
       </c>
       <c r="I15"/>
       <c r="J15" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
@@ -53535,7 +53532,7 @@
         <v>71</v>
       </c>
       <c r="N15" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="O15" t="s">
         <v>73</v>
@@ -53616,7 +53613,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -53634,10 +53631,10 @@
         <v>70</v>
       </c>
       <c r="G16" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H16" t="s">
         <v>1433</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1434</v>
       </c>
       <c r="I16"/>
       <c r="J16" t="s">
@@ -53738,7 +53735,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -53766,22 +53763,22 @@
         <v>72</v>
       </c>
       <c r="K17" t="s">
+        <v>1435</v>
+      </c>
+      <c r="L17" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" t="s">
         <v>1436</v>
       </c>
-      <c r="L17" t="s">
-        <v>70</v>
-      </c>
-      <c r="M17" t="s">
-        <v>71</v>
-      </c>
-      <c r="N17" t="s">
-        <v>70</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>1437</v>
-      </c>
-      <c r="P17" t="s">
-        <v>1438</v>
       </c>
       <c r="Q17" t="s">
         <v>74</v>
@@ -53864,7 +53861,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -53882,19 +53879,19 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
+        <v>1439</v>
+      </c>
+      <c r="H18" t="s">
         <v>1440</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1441</v>
       </c>
       <c r="I18"/>
       <c r="J18" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="N18" t="s">
         <v>70</v>
@@ -53978,7 +53975,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -53996,7 +53993,7 @@
         <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H19" t="s">
         <v>71</v>
@@ -54006,7 +54003,7 @@
         <v>72</v>
       </c>
       <c r="K19" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="L19" t="s">
         <v>70</v>
@@ -54096,7 +54093,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -54111,17 +54108,17 @@
         <v>45509</v>
       </c>
       <c r="F20" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G20" t="s">
         <v>1448</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>1449</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1450</v>
       </c>
       <c r="I20"/>
       <c r="J20" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="K20"/>
       <c r="L20" t="s">
@@ -54214,7 +54211,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -54239,18 +54236,18 @@
       </c>
       <c r="I21"/>
       <c r="J21" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21" t="s">
+        <v>1453</v>
+      </c>
+      <c r="N21" t="s">
+        <v>70</v>
+      </c>
+      <c r="O21" t="s">
         <v>1454</v>
-      </c>
-      <c r="N21" t="s">
-        <v>70</v>
-      </c>
-      <c r="O21" t="s">
-        <v>1455</v>
       </c>
       <c r="P21"/>
       <c r="Q21" t="s">
@@ -54330,7 +54327,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -54448,7 +54445,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
@@ -54471,10 +54468,10 @@
       </c>
       <c r="I23"/>
       <c r="J23" t="s">
+        <v>1457</v>
+      </c>
+      <c r="K23" t="s">
         <v>1458</v>
-      </c>
-      <c r="K23" t="s">
-        <v>1459</v>
       </c>
       <c r="L23"/>
       <c r="M23" t="s">
@@ -54566,7 +54563,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -54681,7 +54678,7 @@
       <c r="BH24"/>
       <c r="BI24"/>
       <c r="BJ24" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="BK24"/>
       <c r="BL24"/>
@@ -54690,7 +54687,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B25" t="s">
         <v>67</v>
@@ -54708,10 +54705,10 @@
         <v>70</v>
       </c>
       <c r="G25" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H25" t="s">
         <v>1463</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1464</v>
       </c>
       <c r="I25"/>
       <c r="J25" t="s">
@@ -54734,7 +54731,7 @@
         <v>72</v>
       </c>
       <c r="Q25" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="R25" t="s">
         <v>72</v>
@@ -54808,7 +54805,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B26" t="s">
         <v>67</v>
@@ -54826,7 +54823,7 @@
         <v>70</v>
       </c>
       <c r="G26" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H26" t="s">
         <v>71</v>
@@ -54837,13 +54834,13 @@
       </c>
       <c r="K26"/>
       <c r="L26" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" t="s">
         <v>1468</v>
-      </c>
-      <c r="M26" t="s">
-        <v>71</v>
-      </c>
-      <c r="N26" t="s">
-        <v>1469</v>
       </c>
       <c r="O26" t="s">
         <v>73</v>
@@ -54926,7 +54923,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
@@ -54941,20 +54938,20 @@
         <v>45509</v>
       </c>
       <c r="F27" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G27" t="s">
         <v>1471</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>1472</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1473</v>
       </c>
       <c r="I27"/>
       <c r="J27" t="s">
         <v>72</v>
       </c>
       <c r="K27" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="L27"/>
       <c r="M27" t="s">
@@ -55042,7 +55039,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
@@ -55060,10 +55057,10 @@
         <v>70</v>
       </c>
       <c r="G28" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H28" t="s">
         <v>1476</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1477</v>
       </c>
       <c r="I28"/>
       <c r="J28" t="s">
@@ -55074,7 +55071,7 @@
         <v>70</v>
       </c>
       <c r="M28" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="N28" t="s">
         <v>70</v>
@@ -55160,7 +55157,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B29" t="s">
         <v>67</v>
@@ -55276,7 +55273,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
@@ -55294,10 +55291,10 @@
         <v>70</v>
       </c>
       <c r="G30" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H30" t="s">
         <v>1481</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1482</v>
       </c>
       <c r="I30"/>
       <c r="J30" t="s">
@@ -55400,7 +55397,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -55418,7 +55415,7 @@
         <v>70</v>
       </c>
       <c r="G31" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H31" t="s">
         <v>71</v>
@@ -55514,7 +55511,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B32" t="s">
         <v>67</v>
@@ -55532,17 +55529,17 @@
         <v>70</v>
       </c>
       <c r="G32" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H32" t="s">
         <v>1486</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1487</v>
       </c>
       <c r="I32"/>
       <c r="J32" t="s">
         <v>72</v>
       </c>
       <c r="K32" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="L32" t="s">
         <v>70</v>
@@ -55634,7 +55631,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
@@ -55652,10 +55649,10 @@
         <v>70</v>
       </c>
       <c r="G33" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H33" t="s">
         <v>1490</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1491</v>
       </c>
       <c r="I33"/>
       <c r="J33" t="s">
@@ -55754,7 +55751,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
@@ -55779,7 +55776,7 @@
       </c>
       <c r="I34"/>
       <c r="J34" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="K34"/>
       <c r="L34"/>
@@ -55868,7 +55865,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -55886,14 +55883,14 @@
         <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H35" t="s">
         <v>71</v>
       </c>
       <c r="I35"/>
       <c r="J35" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K35"/>
       <c r="L35" t="s">
@@ -55986,7 +55983,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
@@ -56004,10 +56001,10 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H36" t="s">
         <v>1498</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1499</v>
       </c>
       <c r="I36"/>
       <c r="J36" t="s">
@@ -56102,7 +56099,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
@@ -56153,16 +56150,16 @@
         <v>72</v>
       </c>
       <c r="V37" t="s">
+        <v>1500</v>
+      </c>
+      <c r="W37" t="s">
+        <v>74</v>
+      </c>
+      <c r="X37" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y37" t="s">
         <v>1501</v>
-      </c>
-      <c r="W37" t="s">
-        <v>74</v>
-      </c>
-      <c r="X37" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>1502</v>
       </c>
       <c r="Z37"/>
       <c r="AA37" t="s">
@@ -56222,7 +56219,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -56240,33 +56237,33 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
+        <v>1503</v>
+      </c>
+      <c r="H38" t="s">
         <v>1504</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1505</v>
       </c>
       <c r="I38"/>
       <c r="J38" t="s">
+        <v>1505</v>
+      </c>
+      <c r="K38" t="s">
         <v>1506</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
+        <v>70</v>
+      </c>
+      <c r="M38" t="s">
+        <v>71</v>
+      </c>
+      <c r="N38" t="s">
+        <v>70</v>
+      </c>
+      <c r="O38" t="s">
         <v>1507</v>
-      </c>
-      <c r="L38" t="s">
-        <v>70</v>
-      </c>
-      <c r="M38" t="s">
-        <v>71</v>
-      </c>
-      <c r="N38" t="s">
-        <v>70</v>
-      </c>
-      <c r="O38" t="s">
-        <v>1508</v>
       </c>
       <c r="P38"/>
       <c r="Q38" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="R38" t="s">
         <v>72</v>
@@ -56342,7 +56339,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
@@ -56360,10 +56357,10 @@
         <v>70</v>
       </c>
       <c r="G39" t="s">
+        <v>1510</v>
+      </c>
+      <c r="H39" t="s">
         <v>1511</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1512</v>
       </c>
       <c r="I39"/>
       <c r="J39" t="s">
@@ -56374,7 +56371,7 @@
         <v>70</v>
       </c>
       <c r="M39" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="N39" t="s">
         <v>70</v>
@@ -56458,7 +56455,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B40" t="s">
         <v>67</v>
@@ -56574,7 +56571,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B41" t="s">
         <v>67</v>
@@ -56592,14 +56589,14 @@
         <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H41" t="s">
         <v>71</v>
       </c>
       <c r="I41"/>
       <c r="J41" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
@@ -56613,7 +56610,7 @@
         <v>73</v>
       </c>
       <c r="P41" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="Q41" t="s">
         <v>74</v>
@@ -56690,7 +56687,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
@@ -56708,17 +56705,17 @@
         <v>70</v>
       </c>
       <c r="G42" t="s">
+        <v>1519</v>
+      </c>
+      <c r="H42" t="s">
         <v>1520</v>
-      </c>
-      <c r="H42" t="s">
-        <v>1521</v>
       </c>
       <c r="I42"/>
       <c r="J42" t="s">
         <v>72</v>
       </c>
       <c r="K42" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="L42"/>
       <c r="M42" t="s">
@@ -56732,7 +56729,7 @@
       </c>
       <c r="P42"/>
       <c r="Q42" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="R42" t="s">
         <v>72</v>
@@ -56752,7 +56749,7 @@
         <v>70</v>
       </c>
       <c r="Y42" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="Z42"/>
       <c r="AA42" t="s">
@@ -56808,7 +56805,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
@@ -56826,14 +56823,14 @@
         <v>70</v>
       </c>
       <c r="G43" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H43" t="s">
         <v>1526</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1527</v>
       </c>
       <c r="I43"/>
       <c r="J43" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="K43"/>
       <c r="L43" t="s">
@@ -56922,7 +56919,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B44" t="s">
         <v>67</v>
@@ -56940,14 +56937,14 @@
         <v>70</v>
       </c>
       <c r="G44" t="s">
+        <v>1529</v>
+      </c>
+      <c r="H44" t="s">
         <v>1530</v>
-      </c>
-      <c r="H44" t="s">
-        <v>1531</v>
       </c>
       <c r="I44"/>
       <c r="J44" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
@@ -57036,7 +57033,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B45" t="s">
         <v>67</v>
@@ -57054,20 +57051,20 @@
         <v>70</v>
       </c>
       <c r="G45" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H45" t="s">
         <v>1534</v>
-      </c>
-      <c r="H45" t="s">
-        <v>1535</v>
       </c>
       <c r="I45"/>
       <c r="J45" t="s">
         <v>72</v>
       </c>
       <c r="K45" t="s">
+        <v>1535</v>
+      </c>
+      <c r="L45" t="s">
         <v>1536</v>
-      </c>
-      <c r="L45" t="s">
-        <v>1537</v>
       </c>
       <c r="M45" t="s">
         <v>71</v>
@@ -57154,7 +57151,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
@@ -57172,23 +57169,23 @@
         <v>70</v>
       </c>
       <c r="G46" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H46" t="s">
         <v>1539</v>
-      </c>
-      <c r="H46" t="s">
-        <v>1540</v>
       </c>
       <c r="I46"/>
       <c r="J46" t="s">
         <v>72</v>
       </c>
       <c r="K46" t="s">
+        <v>1540</v>
+      </c>
+      <c r="L46" t="s">
+        <v>70</v>
+      </c>
+      <c r="M46" t="s">
         <v>1541</v>
-      </c>
-      <c r="L46" t="s">
-        <v>70</v>
-      </c>
-      <c r="M46" t="s">
-        <v>1542</v>
       </c>
       <c r="N46" t="s">
         <v>70</v>
@@ -57266,7 +57263,7 @@
       <c r="BI46"/>
       <c r="BJ46"/>
       <c r="BK46" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="BL46"/>
       <c r="BM46"/>
@@ -57274,7 +57271,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B47" t="s">
         <v>67</v>
@@ -57292,10 +57289,10 @@
         <v>70</v>
       </c>
       <c r="G47" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H47" t="s">
         <v>1545</v>
-      </c>
-      <c r="H47" t="s">
-        <v>1546</v>
       </c>
       <c r="I47"/>
       <c r="J47" t="s">
@@ -57308,7 +57305,7 @@
         <v>70</v>
       </c>
       <c r="M47" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="N47" t="s">
         <v>70</v>
@@ -57349,7 +57346,7 @@
         <v>74</v>
       </c>
       <c r="AD47" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="AE47"/>
       <c r="AF47"/>
@@ -57400,7 +57397,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B48" t="s">
         <v>67</v>
@@ -57418,17 +57415,17 @@
         <v>70</v>
       </c>
       <c r="G48" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H48" t="s">
         <v>1550</v>
-      </c>
-      <c r="H48" t="s">
-        <v>1551</v>
       </c>
       <c r="I48"/>
       <c r="J48" t="s">
+        <v>1551</v>
+      </c>
+      <c r="K48" t="s">
         <v>1552</v>
-      </c>
-      <c r="K48" t="s">
-        <v>1553</v>
       </c>
       <c r="L48" t="s">
         <v>70</v>
@@ -57518,7 +57515,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
@@ -57536,10 +57533,10 @@
         <v>70</v>
       </c>
       <c r="G49" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H49" t="s">
         <v>1555</v>
-      </c>
-      <c r="H49" t="s">
-        <v>1556</v>
       </c>
       <c r="I49"/>
       <c r="J49" t="s">
@@ -57548,7 +57545,7 @@
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="N49" t="s">
         <v>70</v>
@@ -57634,7 +57631,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B50" t="s">
         <v>67</v>
@@ -57652,17 +57649,17 @@
         <v>70</v>
       </c>
       <c r="G50" t="s">
+        <v>1558</v>
+      </c>
+      <c r="H50" t="s">
         <v>1559</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1560</v>
       </c>
       <c r="I50"/>
       <c r="J50" t="s">
         <v>72</v>
       </c>
       <c r="K50" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
@@ -57675,7 +57672,7 @@
         <v>73</v>
       </c>
       <c r="P50" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="Q50" t="s">
         <v>74</v>
@@ -57754,7 +57751,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B51" t="s">
         <v>67</v>
@@ -57772,10 +57769,10 @@
         <v>70</v>
       </c>
       <c r="G51" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H51" t="s">
         <v>1564</v>
-      </c>
-      <c r="H51" t="s">
-        <v>1565</v>
       </c>
       <c r="I51"/>
       <c r="J51" t="s">
